--- a/raw_data/20200818_saline/20200818_Sensor2_Test_70.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_70.xlsx
@@ -1,1037 +1,1453 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F895668-C4A0-4AE6-B1AC-CAD814566DF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>62471.819680</v>
+        <v>62471.819680000001</v>
       </c>
       <c r="B2" s="1">
-        <v>17.353283</v>
+        <v>17.353283000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1246.210000</v>
+        <v>1246.21</v>
       </c>
       <c r="D2" s="1">
-        <v>-294.490000</v>
+        <v>-294.49</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>62481.970805</v>
+        <v>62481.970804999997</v>
       </c>
       <c r="G2" s="1">
-        <v>17.356103</v>
+        <v>17.356103000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.540000</v>
+        <v>1269.54</v>
       </c>
       <c r="I2" s="1">
-        <v>-255.611000</v>
+        <v>-255.61099999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>62492.424485</v>
+        <v>62492.424485000003</v>
       </c>
       <c r="L2" s="1">
-        <v>17.359007</v>
+        <v>17.359006999999998</v>
       </c>
       <c r="M2" s="1">
-        <v>1304.770000</v>
+        <v>1304.77</v>
       </c>
       <c r="N2" s="1">
-        <v>-199.249000</v>
+        <v>-199.249</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>62502.304824</v>
+        <v>62502.304823999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>17.361751</v>
+        <v>17.361751000000002</v>
       </c>
       <c r="R2" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S2" s="1">
-        <v>-182.687000</v>
+        <v>-182.68700000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>62512.571483</v>
       </c>
       <c r="V2" s="1">
-        <v>17.364603</v>
+        <v>17.364602999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1330.690000</v>
+        <v>1330.69</v>
       </c>
       <c r="X2" s="1">
-        <v>-170.790000</v>
+        <v>-170.79</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>62523.319293</v>
       </c>
       <c r="AA2" s="1">
-        <v>17.367589</v>
+        <v>17.367588999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.090000</v>
+        <v>1349.09</v>
       </c>
       <c r="AC2" s="1">
-        <v>-169.693000</v>
+        <v>-169.69300000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>62533.599386</v>
+        <v>62533.599386000002</v>
       </c>
       <c r="AF2" s="1">
-        <v>17.370444</v>
+        <v>17.370443999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.733000</v>
+        <v>-179.733</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>62544.031233</v>
+        <v>62544.031233000002</v>
       </c>
       <c r="AK2" s="1">
-        <v>17.373342</v>
+        <v>17.373342000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.430000</v>
+        <v>1384.43</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.848000</v>
+        <v>-209.84800000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>62554.594532</v>
+        <v>62554.594532000003</v>
       </c>
       <c r="AP2" s="1">
-        <v>17.376276</v>
+        <v>17.376276000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1406.900000</v>
+        <v>1406.9</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.459000</v>
+        <v>-253.459</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>62565.618116</v>
+        <v>62565.618115999998</v>
       </c>
       <c r="AU2" s="1">
-        <v>17.379338</v>
+        <v>17.379338000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.170000</v>
+        <v>1432.17</v>
       </c>
       <c r="AW2" s="1">
-        <v>-313.006000</v>
+        <v>-313.00599999999997</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>62576.770166</v>
+        <v>62576.770166000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>17.382436</v>
+        <v>17.382435999999998</v>
       </c>
       <c r="BA2" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.643000</v>
+        <v>-364.64299999999997</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>62587.662809</v>
+        <v>62587.662809000001</v>
       </c>
       <c r="BE2" s="1">
         <v>17.385462</v>
       </c>
       <c r="BF2" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG2" s="1">
-        <v>-610.538000</v>
+        <v>-610.53800000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>62598.610505</v>
+        <v>62598.610504999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>17.388503</v>
       </c>
       <c r="BK2" s="1">
-        <v>1695.780000</v>
+        <v>1695.78</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1050.080000</v>
+        <v>-1050.08</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>62609.776938</v>
+        <v>62609.776938000003</v>
       </c>
       <c r="BO2" s="1">
-        <v>17.391605</v>
+        <v>17.391604999999998</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.760000</v>
+        <v>1993.76</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1808.190000</v>
+        <v>-1808.19</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>62621.342186</v>
+        <v>62621.342186000002</v>
       </c>
       <c r="BT2" s="1">
         <v>17.394817</v>
       </c>
       <c r="BU2" s="1">
-        <v>2385.800000</v>
+        <v>2385.8000000000002</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2677.740000</v>
+        <v>-2677.74</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>62632.085501</v>
+        <v>62632.085501000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>17.397802</v>
+        <v>17.397801999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2868.630000</v>
+        <v>2868.63</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3625.940000</v>
+        <v>-3625.94</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>62643.688910</v>
+        <v>62643.688909999997</v>
       </c>
       <c r="CD2" s="1">
-        <v>17.401025</v>
+        <v>17.401025000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>4276.780000</v>
+        <v>4276.78</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5881.760000</v>
+        <v>-5881.76</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>62472.171841</v>
+        <v>62472.171841000003</v>
       </c>
       <c r="B3" s="1">
-        <v>17.353381</v>
+        <v>17.353380999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.810000</v>
+        <v>1245.81</v>
       </c>
       <c r="D3" s="1">
-        <v>-294.637000</v>
+        <v>-294.637</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>62482.315523</v>
+        <v>62482.315522999997</v>
       </c>
       <c r="G3" s="1">
         <v>17.356199</v>
       </c>
       <c r="H3" s="1">
-        <v>1270.630000</v>
+        <v>1270.6300000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-256.092000</v>
+        <v>-256.09199999999998</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>62492.803926</v>
+        <v>62492.803926000001</v>
       </c>
       <c r="L3" s="1">
         <v>17.359112</v>
       </c>
       <c r="M3" s="1">
-        <v>1304.450000</v>
+        <v>1304.45</v>
       </c>
       <c r="N3" s="1">
-        <v>-198.966000</v>
+        <v>-198.96600000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>62502.737801</v>
+        <v>62502.737801000003</v>
       </c>
       <c r="Q3" s="1">
-        <v>17.361872</v>
+        <v>17.361872000000002</v>
       </c>
       <c r="R3" s="1">
-        <v>1316.930000</v>
+        <v>1316.93</v>
       </c>
       <c r="S3" s="1">
-        <v>-182.602000</v>
+        <v>-182.602</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>62513.003994</v>
+        <v>62513.003993999999</v>
       </c>
       <c r="V3" s="1">
-        <v>17.364723</v>
+        <v>17.364723000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1330.750000</v>
+        <v>1330.75</v>
       </c>
       <c r="X3" s="1">
-        <v>-170.924000</v>
+        <v>-170.92400000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>62523.429413</v>
+        <v>62523.429412999998</v>
       </c>
       <c r="AA3" s="1">
-        <v>17.367619</v>
+        <v>17.367619000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.150000</v>
+        <v>1349.15</v>
       </c>
       <c r="AC3" s="1">
-        <v>-169.851000</v>
+        <v>-169.851</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>62533.969886</v>
+        <v>62533.969885999999</v>
       </c>
       <c r="AF3" s="1">
-        <v>17.370547</v>
+        <v>17.370546999999998</v>
       </c>
       <c r="AG3" s="1">
-        <v>1362.850000</v>
+        <v>1362.85</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.795000</v>
+        <v>-179.79499999999999</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>62544.396786</v>
+        <v>62544.396785999998</v>
       </c>
       <c r="AK3" s="1">
-        <v>17.373444</v>
+        <v>17.373443999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.824000</v>
+        <v>-209.82400000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>62554.990836</v>
+        <v>62554.990835999997</v>
       </c>
       <c r="AP3" s="1">
         <v>17.376386</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.498000</v>
+        <v>-253.49799999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>62565.985690</v>
+        <v>62565.985690000001</v>
       </c>
       <c r="AU3" s="1">
-        <v>17.379440</v>
+        <v>17.379439999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.160000</v>
+        <v>1432.16</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.965000</v>
+        <v>-312.96499999999997</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>62577.508709</v>
+        <v>62577.508709000002</v>
       </c>
       <c r="AZ3" s="1">
         <v>17.382641</v>
       </c>
       <c r="BA3" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.656000</v>
+        <v>-364.65600000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
         <v>62588.056137</v>
       </c>
       <c r="BE3" s="1">
-        <v>17.385571</v>
+        <v>17.385570999999999</v>
       </c>
       <c r="BF3" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG3" s="1">
-        <v>-610.567000</v>
+        <v>-610.56700000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>62599.028174</v>
+        <v>62599.028173999999</v>
       </c>
       <c r="BJ3" s="1">
-        <v>17.388619</v>
+        <v>17.388618999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1695.730000</v>
+        <v>1695.73</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1050.100000</v>
+        <v>-1050.0999999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>62610.184154</v>
+        <v>62610.184154000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>17.391718</v>
+        <v>17.391718000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.740000</v>
+        <v>1993.74</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1808.220000</v>
+        <v>-1808.22</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>62622.167995</v>
+        <v>62622.167995000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>17.395047</v>
+        <v>17.395047000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>2385.420000</v>
+        <v>2385.42</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2677.660000</v>
+        <v>-2677.66</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>62632.907409</v>
+        <v>62632.907408999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>17.398030</v>
+        <v>17.398029999999999</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2868.040000</v>
+        <v>2868.04</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3626.510000</v>
+        <v>-3626.51</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>62643.950797</v>
+        <v>62643.950796999998</v>
       </c>
       <c r="CD3" s="1">
         <v>17.401097</v>
       </c>
       <c r="CE3" s="1">
-        <v>4272.490000</v>
+        <v>4272.49</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5883.100000</v>
+        <v>-5883.1</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>62472.515569</v>
+        <v>62472.515569000003</v>
       </c>
       <c r="B4" s="1">
-        <v>17.353477</v>
+        <v>17.353477000000002</v>
       </c>
       <c r="C4" s="1">
-        <v>1245.930000</v>
+        <v>1245.93</v>
       </c>
       <c r="D4" s="1">
-        <v>-294.682000</v>
+        <v>-294.68200000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>62482.657266</v>
+        <v>62482.657266000002</v>
       </c>
       <c r="G4" s="1">
-        <v>17.356294</v>
+        <v>17.356293999999998</v>
       </c>
       <c r="H4" s="1">
-        <v>1269.500000</v>
+        <v>1269.5</v>
       </c>
       <c r="I4" s="1">
-        <v>-255.956000</v>
+        <v>-255.95599999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>62493.228848</v>
+        <v>62493.228847999999</v>
       </c>
       <c r="L4" s="1">
-        <v>17.359230</v>
+        <v>17.35923</v>
       </c>
       <c r="M4" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="N4" s="1">
-        <v>-199.155000</v>
+        <v>-199.155</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>62503.070152</v>
@@ -1040,707 +1456,707 @@
         <v>17.361964</v>
       </c>
       <c r="R4" s="1">
-        <v>1316.920000</v>
+        <v>1316.92</v>
       </c>
       <c r="S4" s="1">
-        <v>-182.752000</v>
+        <v>-182.75200000000001</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>62513.300107</v>
+        <v>62513.300107000003</v>
       </c>
       <c r="V4" s="1">
-        <v>17.364806</v>
+        <v>17.364806000000002</v>
       </c>
       <c r="W4" s="1">
-        <v>1330.870000</v>
+        <v>1330.87</v>
       </c>
       <c r="X4" s="1">
-        <v>-170.734000</v>
+        <v>-170.73400000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>62523.769660</v>
+        <v>62523.769659999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>17.367714</v>
+        <v>17.367713999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.120000</v>
+        <v>1349.12</v>
       </c>
       <c r="AC4" s="1">
-        <v>-169.745000</v>
+        <v>-169.745</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>62534.311630</v>
+        <v>62534.311629999997</v>
       </c>
       <c r="AF4" s="1">
         <v>17.370642</v>
       </c>
       <c r="AG4" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.754000</v>
+        <v>-179.75399999999999</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>62544.745481</v>
+        <v>62544.745480999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>17.373540</v>
+        <v>17.373539999999998</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.420000</v>
+        <v>1384.42</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.814000</v>
+        <v>-209.81399999999999</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>62555.714033</v>
+        <v>62555.714032999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>17.376587</v>
+        <v>17.376587000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.459000</v>
+        <v>-253.459</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>62566.712292</v>
+        <v>62566.712291999997</v>
       </c>
       <c r="AU4" s="1">
         <v>17.379642</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.180000</v>
+        <v>1432.18</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.976000</v>
+        <v>-312.976</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>62577.871284</v>
+        <v>62577.871284000001</v>
       </c>
       <c r="AZ4" s="1">
         <v>17.382742</v>
       </c>
       <c r="BA4" s="1">
-        <v>1452.010000</v>
+        <v>1452.01</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.644000</v>
+        <v>-364.64400000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>62588.417718</v>
+        <v>62588.417717999997</v>
       </c>
       <c r="BE4" s="1">
         <v>17.385672</v>
       </c>
       <c r="BF4" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG4" s="1">
-        <v>-610.526000</v>
+        <v>-610.52599999999995</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>62599.418488</v>
+        <v>62599.418488000003</v>
       </c>
       <c r="BJ4" s="1">
-        <v>17.388727</v>
+        <v>17.388726999999999</v>
       </c>
       <c r="BK4" s="1">
-        <v>1695.690000</v>
+        <v>1695.69</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1050.110000</v>
+        <v>-1050.1099999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>62610.906852</v>
       </c>
       <c r="BO4" s="1">
-        <v>17.391919</v>
+        <v>17.391919000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.690000</v>
+        <v>1993.69</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1808.230000</v>
+        <v>-1808.23</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>62622.288523</v>
+        <v>62622.288523000003</v>
       </c>
       <c r="BT4" s="1">
-        <v>17.395080</v>
+        <v>17.39508</v>
       </c>
       <c r="BU4" s="1">
-        <v>2384.880000</v>
+        <v>2384.88</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2677.180000</v>
+        <v>-2677.18</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>62633.399451</v>
+        <v>62633.399450999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>17.398167</v>
+        <v>17.398167000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2867.740000</v>
+        <v>2867.74</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3625.870000</v>
+        <v>-3625.87</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>62644.471102</v>
+        <v>62644.471102000003</v>
       </c>
       <c r="CD4" s="1">
         <v>17.401242</v>
       </c>
       <c r="CE4" s="1">
-        <v>4267.600000</v>
+        <v>4267.6000000000004</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5898.710000</v>
+        <v>-5898.71</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>62472.951551</v>
+        <v>62472.951550999998</v>
       </c>
       <c r="B5" s="1">
-        <v>17.353598</v>
+        <v>17.353598000000002</v>
       </c>
       <c r="C5" s="1">
-        <v>1245.960000</v>
+        <v>1245.96</v>
       </c>
       <c r="D5" s="1">
-        <v>-294.239000</v>
+        <v>-294.23899999999998</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>62483.364068</v>
+        <v>62483.364068000003</v>
       </c>
       <c r="G5" s="1">
-        <v>17.356490</v>
+        <v>17.356490000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1269.800000</v>
+        <v>1269.8</v>
       </c>
       <c r="I5" s="1">
-        <v>-256.337000</v>
+        <v>-256.33699999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>62493.529609</v>
+        <v>62493.529608999997</v>
       </c>
       <c r="L5" s="1">
-        <v>17.359314</v>
+        <v>17.359314000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1304.660000</v>
+        <v>1304.6600000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-199.182000</v>
+        <v>-199.18199999999999</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>62503.417815</v>
+        <v>62503.417815000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>17.362061</v>
+        <v>17.362061000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1316.840000</v>
+        <v>1316.84</v>
       </c>
       <c r="S5" s="1">
-        <v>-182.763000</v>
+        <v>-182.76300000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>62513.643575</v>
+        <v>62513.643575000002</v>
       </c>
       <c r="V5" s="1">
         <v>17.364901</v>
       </c>
       <c r="W5" s="1">
-        <v>1330.710000</v>
+        <v>1330.71</v>
       </c>
       <c r="X5" s="1">
-        <v>-170.559000</v>
+        <v>-170.559</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>62524.117388</v>
+        <v>62524.117387999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>17.367810</v>
+        <v>17.367809999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.170000</v>
+        <v>1349.17</v>
       </c>
       <c r="AC5" s="1">
-        <v>-169.752000</v>
+        <v>-169.75200000000001</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>62534.998095</v>
+        <v>62534.998095000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>17.370833</v>
+        <v>17.370833000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>1362.840000</v>
+        <v>1362.84</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.749000</v>
+        <v>-179.749</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>62545.443344</v>
+        <v>62545.443343999999</v>
       </c>
       <c r="AK5" s="1">
-        <v>17.373734</v>
+        <v>17.373733999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.816000</v>
+        <v>-209.816</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>62556.069137</v>
+        <v>62556.069136999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>17.376686</v>
+        <v>17.376685999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.499000</v>
+        <v>-253.499</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>62567.098675</v>
+        <v>62567.098675000001</v>
       </c>
       <c r="AU5" s="1">
-        <v>17.379750</v>
+        <v>17.379750000000001</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.230000</v>
+        <v>1432.23</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.986000</v>
+        <v>-312.98599999999999</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>62578.226455</v>
+        <v>62578.226455000004</v>
       </c>
       <c r="AZ5" s="1">
-        <v>17.382841</v>
+        <v>17.382840999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1451.980000</v>
+        <v>1451.98</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.678000</v>
+        <v>-364.678</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>62589.101205</v>
+        <v>62589.101204999999</v>
       </c>
       <c r="BE5" s="1">
-        <v>17.385861</v>
+        <v>17.385860999999998</v>
       </c>
       <c r="BF5" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG5" s="1">
-        <v>-610.572000</v>
+        <v>-610.572</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>62599.913495</v>
+        <v>62599.913495000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>17.388865</v>
+        <v>17.388864999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1695.640000</v>
+        <v>1695.64</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1050.100000</v>
+        <v>-1050.0999999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>62611.021897</v>
+        <v>62611.021896999999</v>
       </c>
       <c r="BO5" s="1">
-        <v>17.391951</v>
+        <v>17.391950999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.530000</v>
+        <v>1993.53</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1808.260000</v>
+        <v>-1808.26</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
         <v>62622.725498</v>
       </c>
       <c r="BT5" s="1">
-        <v>17.395202</v>
+        <v>17.395202000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2384.180000</v>
+        <v>2384.1799999999998</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2676.930000</v>
+        <v>-2676.93</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>62633.819018</v>
+        <v>62633.819018000002</v>
       </c>
       <c r="BY5" s="1">
-        <v>17.398283</v>
+        <v>17.398282999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2867.420000</v>
+        <v>2867.42</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3626.530000</v>
+        <v>-3626.53</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>62644.987436</v>
+        <v>62644.987436000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>17.401385</v>
+        <v>17.401385000000001</v>
       </c>
       <c r="CE5" s="1">
-        <v>4268.960000</v>
+        <v>4268.96</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5893.340000</v>
+        <v>-5893.34</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>62473.232318</v>
+        <v>62473.232318000002</v>
       </c>
       <c r="B6" s="1">
         <v>17.353676</v>
       </c>
       <c r="C6" s="1">
-        <v>1246.110000</v>
+        <v>1246.1099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-294.213000</v>
+        <v>-294.21300000000002</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>62483.707793</v>
+        <v>62483.707793000001</v>
       </c>
       <c r="G6" s="1">
-        <v>17.356585</v>
+        <v>17.356584999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>1270.600000</v>
+        <v>1270.5999999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-255.758000</v>
+        <v>-255.75800000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
         <v>62493.870853</v>
       </c>
       <c r="L6" s="1">
-        <v>17.359409</v>
+        <v>17.359408999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>1304.570000</v>
+        <v>1304.57</v>
       </c>
       <c r="N6" s="1">
-        <v>-198.986000</v>
+        <v>-198.98599999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>62503.768523</v>
+        <v>62503.768522999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>17.362158</v>
+        <v>17.362158000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1316.710000</v>
+        <v>1316.71</v>
       </c>
       <c r="S6" s="1">
-        <v>-182.793000</v>
+        <v>-182.79300000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>62513.986074</v>
       </c>
       <c r="V6" s="1">
-        <v>17.364996</v>
+        <v>17.364996000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>1330.540000</v>
+        <v>1330.54</v>
       </c>
       <c r="X6" s="1">
-        <v>-170.856000</v>
+        <v>-170.85599999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>62524.814730</v>
+        <v>62524.814729999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>17.368004</v>
+        <v>17.368003999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.200000</v>
+        <v>1349.2</v>
       </c>
       <c r="AC6" s="1">
-        <v>-169.655000</v>
+        <v>-169.655</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>62535.348269</v>
+        <v>62535.348269000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>17.370930</v>
+        <v>17.370930000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>1362.830000</v>
+        <v>1362.83</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.702000</v>
+        <v>-179.702</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>62545.789551</v>
+        <v>62545.789551000002</v>
       </c>
       <c r="AK6" s="1">
-        <v>17.373830</v>
+        <v>17.373830000000002</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.833000</v>
+        <v>-209.833</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>62556.430258</v>
       </c>
       <c r="AP6" s="1">
-        <v>17.376786</v>
+        <v>17.376785999999999</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.442000</v>
+        <v>-253.44200000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>62567.777236</v>
+        <v>62567.777236000002</v>
       </c>
       <c r="AU6" s="1">
-        <v>17.379938</v>
+        <v>17.379937999999999</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.160000</v>
+        <v>1432.16</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.994000</v>
+        <v>-312.99400000000003</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>62578.897543</v>
+        <v>62578.897542999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>17.383027</v>
+        <v>17.383026999999998</v>
       </c>
       <c r="BA6" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.649000</v>
+        <v>-364.649</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>62589.524329</v>
       </c>
       <c r="BE6" s="1">
-        <v>17.385979</v>
+        <v>17.385978999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG6" s="1">
-        <v>-610.537000</v>
+        <v>-610.53700000000003</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>62600.148599</v>
       </c>
       <c r="BJ6" s="1">
-        <v>17.388930</v>
+        <v>17.388929999999998</v>
       </c>
       <c r="BK6" s="1">
-        <v>1695.710000</v>
+        <v>1695.71</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1050.140000</v>
+        <v>-1050.1400000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>62611.415257</v>
+        <v>62611.415257000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>17.392060</v>
+        <v>17.392060000000001</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.480000</v>
+        <v>1993.48</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1808.300000</v>
+        <v>-1808.3</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>62623.141174</v>
+        <v>62623.141173999997</v>
       </c>
       <c r="BT6" s="1">
-        <v>17.395317</v>
+        <v>17.395316999999999</v>
       </c>
       <c r="BU6" s="1">
-        <v>2383.960000</v>
+        <v>2383.96</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2677.260000</v>
+        <v>-2677.26</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>62634.267899</v>
+        <v>62634.267898999999</v>
       </c>
       <c r="BY6" s="1">
         <v>17.398408</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2867.850000</v>
+        <v>2867.85</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3626.260000</v>
+        <v>-3626.26</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>62645.539483</v>
@@ -1749,135 +2165,135 @@
         <v>17.401539</v>
       </c>
       <c r="CE6" s="1">
-        <v>4270.650000</v>
+        <v>4270.6499999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5884.160000</v>
+        <v>-5884.16</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>62473.571550</v>
+        <v>62473.571550000001</v>
       </c>
       <c r="B7" s="1">
-        <v>17.353770</v>
+        <v>17.353770000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1246.320000</v>
+        <v>1246.32</v>
       </c>
       <c r="D7" s="1">
-        <v>-294.628000</v>
+        <v>-294.62799999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>62484.054000</v>
+        <v>62484.053999999996</v>
       </c>
       <c r="G7" s="1">
-        <v>17.356682</v>
+        <v>17.356681999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="I7" s="1">
-        <v>-256.095000</v>
+        <v>-256.09500000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
         <v>62494.218019</v>
       </c>
       <c r="L7" s="1">
-        <v>17.359505</v>
+        <v>17.359504999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1304.560000</v>
+        <v>1304.56</v>
       </c>
       <c r="N7" s="1">
-        <v>-199.047000</v>
+        <v>-199.047</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>62504.461926</v>
+        <v>62504.461926000004</v>
       </c>
       <c r="Q7" s="1">
         <v>17.362351</v>
       </c>
       <c r="R7" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S7" s="1">
-        <v>-182.651000</v>
+        <v>-182.65100000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>62514.676008</v>
+        <v>62514.676008000002</v>
       </c>
       <c r="V7" s="1">
         <v>17.365188</v>
       </c>
       <c r="W7" s="1">
-        <v>1330.620000</v>
+        <v>1330.62</v>
       </c>
       <c r="X7" s="1">
-        <v>-170.999000</v>
+        <v>-170.999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>62525.162954</v>
+        <v>62525.162953999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>17.368101</v>
+        <v>17.368100999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.160000</v>
+        <v>1349.16</v>
       </c>
       <c r="AC7" s="1">
-        <v>-169.714000</v>
+        <v>-169.714</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>62535.690543</v>
+        <v>62535.690542999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>17.371025</v>
+        <v>17.371024999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>1362.860000</v>
+        <v>1362.86</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.609000</v>
+        <v>-179.60900000000001</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>62546.141214</v>
+        <v>62546.141214000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>17.373928</v>
+        <v>17.373927999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.852000</v>
+        <v>-209.852</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>62557.102305</v>
@@ -1886,13 +2302,13 @@
         <v>17.376973</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1406.850000</v>
+        <v>1406.85</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.441000</v>
+        <v>-253.441</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>62568.225089</v>
@@ -1901,58 +2317,58 @@
         <v>17.380063</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.140000</v>
+        <v>1432.14</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.982000</v>
+        <v>-312.98200000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>62579.306706</v>
+        <v>62579.306706000003</v>
       </c>
       <c r="AZ7" s="1">
-        <v>17.383141</v>
+        <v>17.383140999999998</v>
       </c>
       <c r="BA7" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.637000</v>
+        <v>-364.637</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>62589.890340</v>
+        <v>62589.890339999998</v>
       </c>
       <c r="BE7" s="1">
-        <v>17.386081</v>
+        <v>17.386081000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1538.890000</v>
+        <v>1538.89</v>
       </c>
       <c r="BG7" s="1">
-        <v>-610.567000</v>
+        <v>-610.56700000000001</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>62600.532998</v>
+        <v>62600.532998000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>17.389037</v>
+        <v>17.389036999999998</v>
       </c>
       <c r="BK7" s="1">
-        <v>1695.650000</v>
+        <v>1695.65</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1050.060000</v>
+        <v>-1050.06</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
         <v>62611.837817</v>
@@ -1961,75 +2377,75 @@
         <v>17.392177</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.580000</v>
+        <v>1993.58</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1808.370000</v>
+        <v>-1808.37</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>62623.561288</v>
+        <v>62623.561287999997</v>
       </c>
       <c r="BT7" s="1">
-        <v>17.395434</v>
+        <v>17.395434000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>2383.220000</v>
+        <v>2383.2199999999998</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2676.900000</v>
+        <v>-2676.9</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>62634.695945</v>
+        <v>62634.695944999999</v>
       </c>
       <c r="BY7" s="1">
-        <v>17.398527</v>
+        <v>17.398527000000001</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2867.560000</v>
+        <v>2867.56</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3625.800000</v>
+        <v>-3625.8</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>62646.070698</v>
+        <v>62646.070698000003</v>
       </c>
       <c r="CD7" s="1">
-        <v>17.401686</v>
+        <v>17.401686000000002</v>
       </c>
       <c r="CE7" s="1">
-        <v>4268.200000</v>
+        <v>4268.2</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5899.540000</v>
+        <v>-5899.54</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>62473.914318</v>
+        <v>62473.914318000003</v>
       </c>
       <c r="B8" s="1">
-        <v>17.353865</v>
+        <v>17.353864999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1246.600000</v>
+        <v>1246.5999999999999</v>
       </c>
       <c r="D8" s="1">
-        <v>-294.493000</v>
+        <v>-294.49299999999999</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
         <v>62484.741984</v>
@@ -2038,755 +2454,755 @@
         <v>17.356873</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.110000</v>
+        <v>1270.1099999999999</v>
       </c>
       <c r="I8" s="1">
-        <v>-256.443000</v>
+        <v>-256.44299999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>62494.911426</v>
+        <v>62494.911425999999</v>
       </c>
       <c r="L8" s="1">
-        <v>17.359698</v>
+        <v>17.359698000000002</v>
       </c>
       <c r="M8" s="1">
-        <v>1304.870000</v>
+        <v>1304.8699999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-198.936000</v>
+        <v>-198.93600000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>62504.823974</v>
+        <v>62504.823973999999</v>
       </c>
       <c r="Q8" s="1">
         <v>17.362451</v>
       </c>
       <c r="R8" s="1">
-        <v>1316.850000</v>
+        <v>1316.85</v>
       </c>
       <c r="S8" s="1">
-        <v>-182.666000</v>
+        <v>-182.666</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>62515.024199</v>
+        <v>62515.024198999999</v>
       </c>
       <c r="V8" s="1">
-        <v>17.365284</v>
+        <v>17.365283999999999</v>
       </c>
       <c r="W8" s="1">
-        <v>1330.500000</v>
+        <v>1330.5</v>
       </c>
       <c r="X8" s="1">
-        <v>-170.542000</v>
+        <v>-170.542</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>62525.512603</v>
+        <v>62525.512603000003</v>
       </c>
       <c r="AA8" s="1">
         <v>17.368198</v>
       </c>
       <c r="AB8" s="1">
-        <v>1348.970000</v>
+        <v>1348.97</v>
       </c>
       <c r="AC8" s="1">
-        <v>-169.710000</v>
+        <v>-169.71</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>62536.356635</v>
+        <v>62536.356634999996</v>
       </c>
       <c r="AF8" s="1">
-        <v>17.371210</v>
+        <v>17.371210000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1362.890000</v>
+        <v>1362.89</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.887000</v>
+        <v>-179.887</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>62546.804862</v>
+        <v>62546.804861999997</v>
       </c>
       <c r="AK8" s="1">
         <v>17.374112</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.867000</v>
+        <v>-209.86699999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>62557.538336</v>
+        <v>62557.538335999998</v>
       </c>
       <c r="AP8" s="1">
         <v>17.377094</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1406.900000</v>
+        <v>1406.9</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.477000</v>
+        <v>-253.477</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>62568.592130</v>
+        <v>62568.592129999997</v>
       </c>
       <c r="AU8" s="1">
-        <v>17.380164</v>
+        <v>17.380164000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.140000</v>
+        <v>1432.14</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.995000</v>
+        <v>-312.995</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>62579.694118</v>
+        <v>62579.694117999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>17.383248</v>
+        <v>17.383247999999998</v>
       </c>
       <c r="BA8" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.664000</v>
+        <v>-364.66399999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>62590.249972</v>
+        <v>62590.249971999998</v>
       </c>
       <c r="BE8" s="1">
-        <v>17.386181</v>
+        <v>17.386181000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG8" s="1">
-        <v>-610.527000</v>
+        <v>-610.52700000000004</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>62600.968984</v>
+        <v>62600.968983999999</v>
       </c>
       <c r="BJ8" s="1">
-        <v>17.389158</v>
+        <v>17.389157999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1695.640000</v>
+        <v>1695.64</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1050.090000</v>
+        <v>-1050.0899999999999</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>62612.257927</v>
+        <v>62612.257926999999</v>
       </c>
       <c r="BO8" s="1">
         <v>17.392294</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.320000</v>
+        <v>1993.32</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1808.310000</v>
+        <v>-1808.31</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>62623.972937</v>
+        <v>62623.972936999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>17.395548</v>
+        <v>17.395548000000002</v>
       </c>
       <c r="BU8" s="1">
-        <v>2382.790000</v>
+        <v>2382.79</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2677.050000</v>
+        <v>-2677.05</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>62635.118041</v>
+        <v>62635.118041000002</v>
       </c>
       <c r="BY8" s="1">
-        <v>17.398644</v>
+        <v>17.398644000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2866.950000</v>
+        <v>2866.95</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3625.950000</v>
+        <v>-3625.95</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>62646.590010</v>
+        <v>62646.59001</v>
       </c>
       <c r="CD8" s="1">
-        <v>17.401831</v>
+        <v>17.401831000000001</v>
       </c>
       <c r="CE8" s="1">
-        <v>4282.590000</v>
+        <v>4282.59</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5900.020000</v>
+        <v>-5900.02</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>62474.595789</v>
+        <v>62474.595788999999</v>
       </c>
       <c r="B9" s="1">
-        <v>17.354054</v>
+        <v>17.354054000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>1246.350000</v>
+        <v>1246.3499999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-294.457000</v>
+        <v>-294.45699999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>62485.085679</v>
+        <v>62485.085679000003</v>
       </c>
       <c r="G9" s="1">
-        <v>17.356968</v>
+        <v>17.356967999999998</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.550000</v>
+        <v>1269.55</v>
       </c>
       <c r="I9" s="1">
-        <v>-256.081000</v>
+        <v>-256.08100000000002</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>62495.253170</v>
+        <v>62495.253170000004</v>
       </c>
       <c r="L9" s="1">
         <v>17.359793</v>
       </c>
       <c r="M9" s="1">
-        <v>1304.770000</v>
+        <v>1304.77</v>
       </c>
       <c r="N9" s="1">
-        <v>-199.094000</v>
+        <v>-199.09399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>62505.171204</v>
+        <v>62505.171203999998</v>
       </c>
       <c r="Q9" s="1">
         <v>17.362548</v>
       </c>
       <c r="R9" s="1">
-        <v>1316.860000</v>
+        <v>1316.86</v>
       </c>
       <c r="S9" s="1">
-        <v>-182.739000</v>
+        <v>-182.739</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>62515.368423</v>
       </c>
       <c r="V9" s="1">
-        <v>17.365380</v>
+        <v>17.365379999999998</v>
       </c>
       <c r="W9" s="1">
-        <v>1330.740000</v>
+        <v>1330.74</v>
       </c>
       <c r="X9" s="1">
-        <v>-170.994000</v>
+        <v>-170.994</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>62526.168344</v>
+        <v>62526.168343999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>17.368380</v>
+        <v>17.368379999999998</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.180000</v>
+        <v>1349.18</v>
       </c>
       <c r="AC9" s="1">
-        <v>-169.669000</v>
+        <v>-169.66900000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>62536.723179</v>
+        <v>62536.723179000001</v>
       </c>
       <c r="AF9" s="1">
         <v>17.371312</v>
       </c>
       <c r="AG9" s="1">
-        <v>1362.860000</v>
+        <v>1362.86</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.847000</v>
+        <v>-179.84700000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>62547.183343</v>
+        <v>62547.183342999997</v>
       </c>
       <c r="AK9" s="1">
-        <v>17.374218</v>
+        <v>17.374217999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.430000</v>
+        <v>1384.43</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.827000</v>
+        <v>-209.827</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>62557.896895</v>
+        <v>62557.896894999998</v>
       </c>
       <c r="AP9" s="1">
-        <v>17.377194</v>
+        <v>17.377193999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1406.910000</v>
+        <v>1406.91</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.465000</v>
+        <v>-253.465</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>62568.957196</v>
+        <v>62568.957196000003</v>
       </c>
       <c r="AU9" s="1">
-        <v>17.380266</v>
+        <v>17.380265999999999</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.150000</v>
+        <v>1432.15</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.980000</v>
+        <v>-312.98</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>62580.054222</v>
+        <v>62580.054221999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>17.383348</v>
+        <v>17.383348000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.628000</v>
+        <v>-364.62799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
         <v>62590.678516</v>
       </c>
       <c r="BE9" s="1">
-        <v>17.386300</v>
+        <v>17.386299999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG9" s="1">
-        <v>-610.480000</v>
+        <v>-610.48</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>62601.299813</v>
+        <v>62601.299812999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>17.389250</v>
+        <v>17.389250000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.620000</v>
+        <v>1695.62</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1050.090000</v>
+        <v>-1050.0899999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>62612.658694</v>
+        <v>62612.658693999998</v>
       </c>
       <c r="BO9" s="1">
         <v>17.392405</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.390000</v>
+        <v>1993.39</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1808.300000</v>
+        <v>-1808.3</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>62624.386599</v>
+        <v>62624.386598999998</v>
       </c>
       <c r="BT9" s="1">
-        <v>17.395663</v>
+        <v>17.395662999999999</v>
       </c>
       <c r="BU9" s="1">
-        <v>2382.120000</v>
+        <v>2382.12</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2677.140000</v>
+        <v>-2677.14</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>62635.540633</v>
+        <v>62635.540632999997</v>
       </c>
       <c r="BY9" s="1">
         <v>17.398761</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2867.050000</v>
+        <v>2867.05</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3626.510000</v>
+        <v>-3626.51</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>62647.105392</v>
+        <v>62647.105391999998</v>
       </c>
       <c r="CD9" s="1">
-        <v>17.401974</v>
+        <v>17.401973999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>4279.890000</v>
+        <v>4279.8900000000003</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5886.440000</v>
+        <v>-5886.44</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>62474.941036</v>
+        <v>62474.941035999997</v>
       </c>
       <c r="B10" s="1">
-        <v>17.354150</v>
+        <v>17.354150000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1246.370000</v>
+        <v>1246.3699999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-294.425000</v>
+        <v>-294.42500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>62485.430398</v>
+        <v>62485.430397999997</v>
       </c>
       <c r="G10" s="1">
-        <v>17.357064</v>
+        <v>17.357064000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>1270.050000</v>
+        <v>1270.05</v>
       </c>
       <c r="I10" s="1">
-        <v>-256.400000</v>
+        <v>-256.39999999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>62495.604833</v>
+        <v>62495.604832999998</v>
       </c>
       <c r="L10" s="1">
-        <v>17.359890</v>
+        <v>17.35989</v>
       </c>
       <c r="M10" s="1">
-        <v>1304.530000</v>
+        <v>1304.53</v>
       </c>
       <c r="N10" s="1">
-        <v>-199.064000</v>
+        <v>-199.06399999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>62505.835848</v>
+        <v>62505.835848000002</v>
       </c>
       <c r="Q10" s="1">
-        <v>17.362732</v>
+        <v>17.362732000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S10" s="1">
-        <v>-182.719000</v>
+        <v>-182.71899999999999</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>62516.030624</v>
+        <v>62516.030623999999</v>
       </c>
       <c r="V10" s="1">
-        <v>17.365564</v>
+        <v>17.365563999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1330.630000</v>
+        <v>1330.63</v>
       </c>
       <c r="X10" s="1">
-        <v>-170.545000</v>
+        <v>-170.54499999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>62526.556186</v>
+        <v>62526.556186000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>17.368488</v>
+        <v>17.368487999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.050000</v>
+        <v>1349.05</v>
       </c>
       <c r="AC10" s="1">
-        <v>-169.664000</v>
+        <v>-169.66399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>62537.063931</v>
+        <v>62537.063930999997</v>
       </c>
       <c r="AF10" s="1">
-        <v>17.371407</v>
+        <v>17.371407000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.467000</v>
+        <v>-179.46700000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>62547.532990</v>
+        <v>62547.53299</v>
       </c>
       <c r="AK10" s="1">
-        <v>17.374315</v>
+        <v>17.374314999999999</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.450000</v>
+        <v>1384.45</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.832000</v>
+        <v>-209.83199999999999</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>62558.263438</v>
+        <v>62558.263438000002</v>
       </c>
       <c r="AP10" s="1">
         <v>17.377295</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1406.910000</v>
+        <v>1406.91</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.497000</v>
+        <v>-253.49700000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>62569.375808</v>
+        <v>62569.375807999997</v>
       </c>
       <c r="AU10" s="1">
-        <v>17.380382</v>
+        <v>17.380382000000001</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.180000</v>
+        <v>1432.18</v>
       </c>
       <c r="AW10" s="1">
-        <v>-313.016000</v>
+        <v>-313.01600000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>62580.484705</v>
+        <v>62580.484705000003</v>
       </c>
       <c r="AZ10" s="1">
-        <v>17.383468</v>
+        <v>17.383468000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.626000</v>
+        <v>-364.62599999999998</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>62590.975123</v>
+        <v>62590.975122999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>17.386382</v>
+        <v>17.386382000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG10" s="1">
-        <v>-610.526000</v>
+        <v>-610.52599999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>62601.675781</v>
+        <v>62601.675780999998</v>
       </c>
       <c r="BJ10" s="1">
-        <v>17.389354</v>
+        <v>17.389354000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1695.590000</v>
+        <v>1695.59</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1050.030000</v>
+        <v>-1050.03</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>62613.054008</v>
+        <v>62613.054007999999</v>
       </c>
       <c r="BO10" s="1">
         <v>17.392515</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.240000</v>
+        <v>1993.24</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1808.290000</v>
+        <v>-1808.29</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>62624.798776</v>
+        <v>62624.798776000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>17.395777</v>
+        <v>17.395776999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2381.800000</v>
+        <v>2381.8000000000002</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2677.910000</v>
+        <v>-2677.91</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>62635.967688</v>
+        <v>62635.967687999997</v>
       </c>
       <c r="BY10" s="1">
-        <v>17.398880</v>
+        <v>17.398879999999998</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2867.600000</v>
+        <v>2867.6</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3625.670000</v>
+        <v>-3625.67</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>62647.623673</v>
+        <v>62647.623673000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>17.402118</v>
+        <v>17.402118000000002</v>
       </c>
       <c r="CE10" s="1">
-        <v>4266.350000</v>
+        <v>4266.3500000000004</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5891.830000</v>
+        <v>-5891.83</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>62475.284237</v>
       </c>
@@ -2794,88 +3210,88 @@
         <v>17.354246</v>
       </c>
       <c r="C11" s="1">
-        <v>1246.200000</v>
+        <v>1246.2</v>
       </c>
       <c r="D11" s="1">
-        <v>-294.504000</v>
+        <v>-294.50400000000002</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>62486.083134</v>
       </c>
       <c r="G11" s="1">
-        <v>17.357245</v>
+        <v>17.357244999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.360000</v>
+        <v>1269.3599999999999</v>
       </c>
       <c r="I11" s="1">
-        <v>-254.665000</v>
+        <v>-254.66499999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>62496.265539</v>
       </c>
       <c r="L11" s="1">
-        <v>17.360074</v>
+        <v>17.360074000000001</v>
       </c>
       <c r="M11" s="1">
-        <v>1304.570000</v>
+        <v>1304.57</v>
       </c>
       <c r="N11" s="1">
-        <v>-199.040000</v>
+        <v>-199.04</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>62506.218723</v>
+        <v>62506.218722999998</v>
       </c>
       <c r="Q11" s="1">
-        <v>17.362839</v>
+        <v>17.362839000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1316.840000</v>
+        <v>1316.84</v>
       </c>
       <c r="S11" s="1">
-        <v>-182.619000</v>
+        <v>-182.619</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>62516.398119</v>
+        <v>62516.398118999998</v>
       </c>
       <c r="V11" s="1">
-        <v>17.365666</v>
+        <v>17.365666000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>1330.800000</v>
+        <v>1330.8</v>
       </c>
       <c r="X11" s="1">
-        <v>-170.892000</v>
+        <v>-170.892</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>62526.907848</v>
+        <v>62526.907848000003</v>
       </c>
       <c r="AA11" s="1">
-        <v>17.368586</v>
+        <v>17.368586000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.080000</v>
+        <v>1349.08</v>
       </c>
       <c r="AC11" s="1">
-        <v>-169.607000</v>
+        <v>-169.607</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>62537.408313</v>
@@ -2884,58 +3300,58 @@
         <v>17.371502</v>
       </c>
       <c r="AG11" s="1">
-        <v>1362.920000</v>
+        <v>1362.92</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.711000</v>
+        <v>-179.71100000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>62547.881217</v>
+        <v>62547.881217000002</v>
       </c>
       <c r="AK11" s="1">
-        <v>17.374411</v>
+        <v>17.374410999999998</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.400000</v>
+        <v>1384.4</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.794000</v>
+        <v>-209.79400000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>62558.691486</v>
+        <v>62558.691486000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>17.377414</v>
+        <v>17.377414000000002</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1406.890000</v>
+        <v>1406.89</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.465000</v>
+        <v>-253.465</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>62569.683850</v>
+        <v>62569.683850000001</v>
       </c>
       <c r="AU11" s="1">
         <v>17.380468</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.150000</v>
+        <v>1432.15</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.990000</v>
+        <v>-312.99</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>62580.768418</v>
@@ -2944,180 +3360,180 @@
         <v>17.383547</v>
       </c>
       <c r="BA11" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.653000</v>
+        <v>-364.65300000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>62591.334728</v>
+        <v>62591.334728000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>17.386482</v>
+        <v>17.386482000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG11" s="1">
-        <v>-610.494000</v>
+        <v>-610.49400000000003</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>62602.051252</v>
+        <v>62602.051251999997</v>
       </c>
       <c r="BJ11" s="1">
-        <v>17.389459</v>
+        <v>17.389458999999999</v>
       </c>
       <c r="BK11" s="1">
-        <v>1695.630000</v>
+        <v>1695.63</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1050.070000</v>
+        <v>-1050.07</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>62613.475605</v>
       </c>
       <c r="BO11" s="1">
-        <v>17.392632</v>
+        <v>17.392631999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.410000</v>
+        <v>1993.41</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1808.320000</v>
+        <v>-1808.32</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>62625.219910</v>
+        <v>62625.21991</v>
       </c>
       <c r="BT11" s="1">
-        <v>17.395894</v>
+        <v>17.395893999999998</v>
       </c>
       <c r="BU11" s="1">
-        <v>2381.190000</v>
+        <v>2381.19</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2678.180000</v>
+        <v>-2678.18</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>62636.382577</v>
+        <v>62636.382576999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>17.398995</v>
+        <v>17.398994999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2867.760000</v>
+        <v>2867.76</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3626.530000</v>
+        <v>-3626.53</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>62648.142487</v>
+        <v>62648.142486999997</v>
       </c>
       <c r="CD11" s="1">
         <v>17.402262</v>
       </c>
       <c r="CE11" s="1">
-        <v>4274.470000</v>
+        <v>4274.47</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5905.870000</v>
+        <v>-5905.87</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>62475.942429</v>
+        <v>62475.942429000002</v>
       </c>
       <c r="B12" s="1">
-        <v>17.354428</v>
+        <v>17.354427999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1246.350000</v>
+        <v>1246.3499999999999</v>
       </c>
       <c r="D12" s="1">
-        <v>-294.640000</v>
+        <v>-294.64</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>62486.467533</v>
+        <v>62486.467533000003</v>
       </c>
       <c r="G12" s="1">
-        <v>17.357352</v>
+        <v>17.357351999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>1270.220000</v>
+        <v>1270.22</v>
       </c>
       <c r="I12" s="1">
-        <v>-255.815000</v>
+        <v>-255.815</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>62496.640495</v>
       </c>
       <c r="L12" s="1">
-        <v>17.360178</v>
+        <v>17.360178000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1304.860000</v>
+        <v>1304.8599999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-198.925000</v>
+        <v>-198.92500000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>62506.564436</v>
+        <v>62506.564436000001</v>
       </c>
       <c r="Q12" s="1">
         <v>17.362935</v>
       </c>
       <c r="R12" s="1">
-        <v>1316.810000</v>
+        <v>1316.81</v>
       </c>
       <c r="S12" s="1">
-        <v>-182.568000</v>
+        <v>-182.56800000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>62516.742837</v>
+        <v>62516.742836999998</v>
       </c>
       <c r="V12" s="1">
         <v>17.365762</v>
       </c>
       <c r="W12" s="1">
-        <v>1330.610000</v>
+        <v>1330.61</v>
       </c>
       <c r="X12" s="1">
-        <v>-170.671000</v>
+        <v>-170.67099999999999</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>62527.254062</v>
@@ -3126,739 +3542,739 @@
         <v>17.368682</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.070000</v>
+        <v>1349.07</v>
       </c>
       <c r="AC12" s="1">
-        <v>-169.740000</v>
+        <v>-169.74</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>62537.829755</v>
+        <v>62537.829754999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>17.371619</v>
+        <v>17.371618999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1362.630000</v>
+        <v>1362.63</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.795000</v>
+        <v>-179.79499999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>62548.319643</v>
+        <v>62548.319643000003</v>
       </c>
       <c r="AK12" s="1">
         <v>17.374533</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.420000</v>
+        <v>1384.42</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.827000</v>
+        <v>-209.827</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>62558.977679</v>
+        <v>62558.977679000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>17.377494</v>
+        <v>17.377493999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.481000</v>
+        <v>-253.48099999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>62570.050862</v>
+        <v>62570.050861999996</v>
       </c>
       <c r="AU12" s="1">
-        <v>17.380570</v>
+        <v>17.380569999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.170000</v>
+        <v>1432.17</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.989000</v>
+        <v>-312.98899999999998</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>62581.128057</v>
+        <v>62581.128057000002</v>
       </c>
       <c r="AZ12" s="1">
         <v>17.383647</v>
       </c>
       <c r="BA12" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.621000</v>
+        <v>-364.62099999999998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>62591.695810</v>
+        <v>62591.695809999997</v>
       </c>
       <c r="BE12" s="1">
-        <v>17.386582</v>
+        <v>17.386582000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG12" s="1">
-        <v>-610.507000</v>
+        <v>-610.50699999999995</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>62602.821539</v>
+        <v>62602.821538999997</v>
       </c>
       <c r="BJ12" s="1">
-        <v>17.389673</v>
+        <v>17.389672999999998</v>
       </c>
       <c r="BK12" s="1">
-        <v>1695.590000</v>
+        <v>1695.59</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1050.060000</v>
+        <v>-1050.06</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>62614.292518</v>
+        <v>62614.292518000002</v>
       </c>
       <c r="BO12" s="1">
-        <v>17.392859</v>
+        <v>17.392859000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.420000</v>
+        <v>1993.42</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1808.170000</v>
+        <v>-1808.17</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>62625.649414</v>
       </c>
       <c r="BT12" s="1">
-        <v>17.396014</v>
+        <v>17.396014000000001</v>
       </c>
       <c r="BU12" s="1">
-        <v>2380.900000</v>
+        <v>2380.9</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2678.630000</v>
+        <v>-2678.63</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>62636.838166</v>
+        <v>62636.838166000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>17.399122</v>
+        <v>17.399121999999998</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2867.860000</v>
+        <v>2867.86</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3625.790000</v>
+        <v>-3625.79</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>62648.662792</v>
+        <v>62648.662792000003</v>
       </c>
       <c r="CD12" s="1">
-        <v>17.402406</v>
+        <v>17.402405999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4268.580000</v>
+        <v>4268.58</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5901.500000</v>
+        <v>-5901.5</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
         <v>62476.304506</v>
       </c>
       <c r="B13" s="1">
-        <v>17.354529</v>
+        <v>17.354528999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>1246.150000</v>
+        <v>1246.1500000000001</v>
       </c>
       <c r="D13" s="1">
-        <v>-294.405000</v>
+        <v>-294.40499999999997</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>62486.810765</v>
+        <v>62486.810765000002</v>
       </c>
       <c r="G13" s="1">
-        <v>17.357447</v>
+        <v>17.357447000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>1269.860000</v>
+        <v>1269.8599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-255.448000</v>
+        <v>-255.44800000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>62496.985200</v>
+        <v>62496.985200000003</v>
       </c>
       <c r="L13" s="1">
         <v>17.360274</v>
       </c>
       <c r="M13" s="1">
-        <v>1304.330000</v>
+        <v>1304.33</v>
       </c>
       <c r="N13" s="1">
-        <v>-199.075000</v>
+        <v>-199.07499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>62506.914146</v>
+        <v>62506.914146000003</v>
       </c>
       <c r="Q13" s="1">
         <v>17.363032</v>
       </c>
       <c r="R13" s="1">
-        <v>1316.890000</v>
+        <v>1316.89</v>
       </c>
       <c r="S13" s="1">
-        <v>-182.664000</v>
+        <v>-182.66399999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>62517.349489</v>
       </c>
       <c r="V13" s="1">
-        <v>17.365930</v>
+        <v>17.365929999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1330.640000</v>
+        <v>1330.64</v>
       </c>
       <c r="X13" s="1">
-        <v>-170.449000</v>
+        <v>-170.44900000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
         <v>62527.679655</v>
       </c>
       <c r="AA13" s="1">
-        <v>17.368800</v>
+        <v>17.3688</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.270000</v>
+        <v>1349.27</v>
       </c>
       <c r="AC13" s="1">
-        <v>-169.658000</v>
+        <v>-169.65799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>62538.098089</v>
+        <v>62538.098088999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>17.371694</v>
+        <v>17.371694000000002</v>
       </c>
       <c r="AG13" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.855000</v>
+        <v>-179.85499999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>62548.580539</v>
+        <v>62548.580539000002</v>
       </c>
       <c r="AK13" s="1">
         <v>17.374606</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.410000</v>
+        <v>1384.41</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.778000</v>
+        <v>-209.77799999999999</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>62559.342237</v>
+        <v>62559.342236999997</v>
       </c>
       <c r="AP13" s="1">
-        <v>17.377595</v>
+        <v>17.377594999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.462000</v>
+        <v>-253.46199999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>62570.413438</v>
+        <v>62570.413438000003</v>
       </c>
       <c r="AU13" s="1">
-        <v>17.380670</v>
+        <v>17.380669999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.180000</v>
+        <v>1432.18</v>
       </c>
       <c r="AW13" s="1">
-        <v>-313.009000</v>
+        <v>-313.00900000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>62581.487438</v>
+        <v>62581.487437999996</v>
       </c>
       <c r="AZ13" s="1">
         <v>17.383747</v>
       </c>
       <c r="BA13" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.614000</v>
+        <v>-364.61399999999998</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>62592.414979</v>
+        <v>62592.414979000001</v>
       </c>
       <c r="BE13" s="1">
         <v>17.386782</v>
       </c>
       <c r="BF13" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG13" s="1">
-        <v>-610.497000</v>
+        <v>-610.49699999999996</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>62603.195027</v>
+        <v>62603.195027000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>17.389776</v>
+        <v>17.389776000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.650000</v>
+        <v>1695.65</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1049.990000</v>
+        <v>-1049.99</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>62614.709653</v>
+        <v>62614.709652999998</v>
       </c>
       <c r="BO13" s="1">
         <v>17.392975</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.270000</v>
+        <v>1993.27</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1808.260000</v>
+        <v>-1808.26</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>62626.079941</v>
+        <v>62626.079941000004</v>
       </c>
       <c r="BT13" s="1">
-        <v>17.396133</v>
+        <v>17.396132999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>2380.670000</v>
+        <v>2380.67</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2679.190000</v>
+        <v>-2679.19</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>62637.595559</v>
+        <v>62637.595559000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>17.399332</v>
+        <v>17.399332000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2867.630000</v>
+        <v>2867.63</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3625.930000</v>
+        <v>-3625.93</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
         <v>62649.514422</v>
       </c>
       <c r="CD13" s="1">
-        <v>17.402643</v>
+        <v>17.402643000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4264.980000</v>
+        <v>4264.9799999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5892.410000</v>
+        <v>-5892.41</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>62476.649723</v>
+        <v>62476.649723000002</v>
       </c>
       <c r="B14" s="1">
-        <v>17.354625</v>
+        <v>17.354624999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>1246.030000</v>
+        <v>1246.03</v>
       </c>
       <c r="D14" s="1">
-        <v>-294.628000</v>
+        <v>-294.62799999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>62487.162497</v>
+        <v>62487.162496999998</v>
       </c>
       <c r="G14" s="1">
-        <v>17.357545</v>
+        <v>17.357544999999998</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.770000</v>
+        <v>1269.77</v>
       </c>
       <c r="I14" s="1">
-        <v>-256.092000</v>
+        <v>-256.09199999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>62497.332433</v>
+        <v>62497.332433000003</v>
       </c>
       <c r="L14" s="1">
-        <v>17.360370</v>
+        <v>17.36037</v>
       </c>
       <c r="M14" s="1">
-        <v>1304.560000</v>
+        <v>1304.56</v>
       </c>
       <c r="N14" s="1">
-        <v>-198.861000</v>
+        <v>-198.86099999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>62507.333265</v>
+        <v>62507.333265000001</v>
       </c>
       <c r="Q14" s="1">
-        <v>17.363148</v>
+        <v>17.363147999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1316.840000</v>
+        <v>1316.84</v>
       </c>
       <c r="S14" s="1">
-        <v>-182.650000</v>
+        <v>-182.65</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>62517.774020</v>
+        <v>62517.774019999997</v>
       </c>
       <c r="V14" s="1">
-        <v>17.366048</v>
+        <v>17.366047999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>1330.840000</v>
+        <v>1330.84</v>
       </c>
       <c r="X14" s="1">
-        <v>-170.704000</v>
+        <v>-170.70400000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>62527.959864</v>
+        <v>62527.959863999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>17.368878</v>
+        <v>17.368877999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.150000</v>
+        <v>1349.15</v>
       </c>
       <c r="AC14" s="1">
-        <v>-169.716000</v>
+        <v>-169.71600000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>62538.442344</v>
+        <v>62538.442344000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>17.371790</v>
+        <v>17.371790000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>1362.850000</v>
+        <v>1362.85</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.746000</v>
+        <v>-179.74600000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>62548.929760</v>
+        <v>62548.929759999999</v>
       </c>
       <c r="AK14" s="1">
         <v>17.374703</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.410000</v>
+        <v>1384.41</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.795000</v>
+        <v>-209.79499999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>62559.703324</v>
+        <v>62559.703324000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>17.377695</v>
+        <v>17.377694999999999</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.461000</v>
+        <v>-253.46100000000001</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>62571.143581</v>
+        <v>62571.143580999997</v>
       </c>
       <c r="AU14" s="1">
-        <v>17.380873</v>
+        <v>17.380873000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.180000</v>
+        <v>1432.18</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.992000</v>
+        <v>-312.99200000000002</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>62582.212272</v>
+        <v>62582.212271999997</v>
       </c>
       <c r="AZ14" s="1">
         <v>17.383948</v>
       </c>
       <c r="BA14" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.644000</v>
+        <v>-364.64400000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>62592.778544</v>
+        <v>62592.778544000001</v>
       </c>
       <c r="BE14" s="1">
-        <v>17.386883</v>
+        <v>17.386883000000001</v>
       </c>
       <c r="BF14" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG14" s="1">
-        <v>-610.497000</v>
+        <v>-610.49699999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>62603.568843</v>
+        <v>62603.568843000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>17.389880</v>
+        <v>17.389880000000002</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.550000</v>
+        <v>1695.55</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1050.110000</v>
+        <v>-1050.1099999999999</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>62615.106947</v>
       </c>
       <c r="BO14" s="1">
-        <v>17.393085</v>
+        <v>17.393084999999999</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.220000</v>
+        <v>1993.22</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1808.120000</v>
+        <v>-1808.12</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>62626.814021</v>
+        <v>62626.814020999998</v>
       </c>
       <c r="BT14" s="1">
-        <v>17.396337</v>
+        <v>17.396336999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2381.020000</v>
+        <v>2381.02</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2679.600000</v>
+        <v>-2679.6</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>62637.719558</v>
+        <v>62637.719557999997</v>
       </c>
       <c r="BY14" s="1">
-        <v>17.399367</v>
+        <v>17.399367000000002</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2866.560000</v>
+        <v>2866.56</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3625.920000</v>
+        <v>-3625.92</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>62649.741096</v>
+        <v>62649.741095999998</v>
       </c>
       <c r="CD14" s="1">
-        <v>17.402706</v>
+        <v>17.402705999999998</v>
       </c>
       <c r="CE14" s="1">
-        <v>4274.930000</v>
+        <v>4274.93</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5905.820000</v>
+        <v>-5905.82</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>62476.991962</v>
       </c>
       <c r="B15" s="1">
-        <v>17.354720</v>
+        <v>17.35472</v>
       </c>
       <c r="C15" s="1">
-        <v>1246.280000</v>
+        <v>1246.28</v>
       </c>
       <c r="D15" s="1">
-        <v>-294.423000</v>
+        <v>-294.423</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>62487.585052</v>
+        <v>62487.585052000002</v>
       </c>
       <c r="G15" s="1">
-        <v>17.357663</v>
+        <v>17.357662999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1270.280000</v>
+        <v>1270.28</v>
       </c>
       <c r="I15" s="1">
-        <v>-255.603000</v>
+        <v>-255.60300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>62497.765406</v>
+        <v>62497.765405999999</v>
       </c>
       <c r="L15" s="1">
-        <v>17.360490</v>
+        <v>17.360489999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1304.790000</v>
+        <v>1304.79</v>
       </c>
       <c r="N15" s="1">
-        <v>-199.108000</v>
+        <v>-199.108</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>62507.611525</v>
@@ -3867,497 +4283,497 @@
         <v>17.363225</v>
       </c>
       <c r="R15" s="1">
-        <v>1316.870000</v>
+        <v>1316.87</v>
       </c>
       <c r="S15" s="1">
-        <v>-182.636000</v>
+        <v>-182.636</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>62518.116757</v>
+        <v>62518.116757000003</v>
       </c>
       <c r="V15" s="1">
-        <v>17.366144</v>
+        <v>17.366143999999998</v>
       </c>
       <c r="W15" s="1">
-        <v>1330.520000</v>
+        <v>1330.52</v>
       </c>
       <c r="X15" s="1">
-        <v>-170.612000</v>
+        <v>-170.61199999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>62528.308879</v>
+        <v>62528.308878999997</v>
       </c>
       <c r="AA15" s="1">
-        <v>17.368975</v>
+        <v>17.368974999999999</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.220000</v>
+        <v>1349.22</v>
       </c>
       <c r="AC15" s="1">
-        <v>-169.722000</v>
+        <v>-169.72200000000001</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>62538.785544</v>
+        <v>62538.785543999998</v>
       </c>
       <c r="AF15" s="1">
-        <v>17.371885</v>
+        <v>17.371884999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1362.880000</v>
+        <v>1362.88</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.971000</v>
+        <v>-179.971</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>62549.279434</v>
+        <v>62549.279433999996</v>
       </c>
       <c r="AK15" s="1">
-        <v>17.374800</v>
+        <v>17.3748</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.410000</v>
+        <v>1384.41</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.798000</v>
+        <v>-209.798</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>62560.423515</v>
+        <v>62560.423515000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>17.377895</v>
+        <v>17.377894999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.484000</v>
+        <v>-253.48400000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>62571.534397</v>
+        <v>62571.534397000003</v>
       </c>
       <c r="AU15" s="1">
-        <v>17.380982</v>
+        <v>17.380981999999999</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.160000</v>
+        <v>1432.16</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.997000</v>
+        <v>-312.99700000000001</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>62582.592206</v>
+        <v>62582.592206000001</v>
       </c>
       <c r="AZ15" s="1">
-        <v>17.384053</v>
+        <v>17.384053000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.630000</v>
+        <v>-364.63</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>62593.141121</v>
+        <v>62593.141121000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>17.386984</v>
+        <v>17.386984000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1538.840000</v>
+        <v>1538.84</v>
       </c>
       <c r="BG15" s="1">
-        <v>-610.493000</v>
+        <v>-610.49300000000005</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>62604.273330</v>
+        <v>62604.273330000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>17.390076</v>
+        <v>17.390076000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1695.610000</v>
+        <v>1695.61</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1050.020000</v>
+        <v>-1050.02</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>62615.844500</v>
+        <v>62615.844499999999</v>
       </c>
       <c r="BO15" s="1">
-        <v>17.393290</v>
+        <v>17.39329</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.370000</v>
+        <v>1993.37</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1808.050000</v>
+        <v>-1808.05</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>62626.925652</v>
+        <v>62626.925651999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>17.396368</v>
+        <v>17.396367999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>2381.150000</v>
+        <v>2381.15</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2680.160000</v>
+        <v>-2680.16</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>62638.144667</v>
       </c>
       <c r="BY15" s="1">
-        <v>17.399485</v>
+        <v>17.399484999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2867.100000</v>
+        <v>2867.1</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3626.270000</v>
+        <v>-3626.27</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>62650.261893</v>
+        <v>62650.261893000003</v>
       </c>
       <c r="CD15" s="1">
-        <v>17.402851</v>
+        <v>17.402850999999998</v>
       </c>
       <c r="CE15" s="1">
-        <v>4280.230000</v>
+        <v>4280.2299999999996</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5882.180000</v>
+        <v>-5882.18</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>62477.421001</v>
+        <v>62477.421001000002</v>
       </c>
       <c r="B16" s="1">
-        <v>17.354839</v>
+        <v>17.354838999999998</v>
       </c>
       <c r="C16" s="1">
-        <v>1246.040000</v>
+        <v>1246.04</v>
       </c>
       <c r="D16" s="1">
-        <v>-294.731000</v>
+        <v>-294.73099999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>62487.862782</v>
+        <v>62487.862781999997</v>
       </c>
       <c r="G16" s="1">
-        <v>17.357740</v>
+        <v>17.35774</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.630000</v>
+        <v>1269.6300000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-255.357000</v>
+        <v>-255.357</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>62498.044961</v>
       </c>
       <c r="L16" s="1">
-        <v>17.360568</v>
+        <v>17.360568000000001</v>
       </c>
       <c r="M16" s="1">
-        <v>1304.660000</v>
+        <v>1304.6600000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-198.978000</v>
+        <v>-198.97800000000001</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>62507.961171</v>
+        <v>62507.961171000003</v>
       </c>
       <c r="Q16" s="1">
-        <v>17.363323</v>
+        <v>17.363323000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S16" s="1">
-        <v>-182.681000</v>
+        <v>-182.68100000000001</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>62518.459776</v>
+        <v>62518.459776000003</v>
       </c>
       <c r="V16" s="1">
         <v>17.366239</v>
       </c>
       <c r="W16" s="1">
-        <v>1330.740000</v>
+        <v>1330.74</v>
       </c>
       <c r="X16" s="1">
-        <v>-170.401000</v>
+        <v>-170.40100000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>62528.656741</v>
+        <v>62528.656740999999</v>
       </c>
       <c r="AA16" s="1">
-        <v>17.369071</v>
+        <v>17.369071000000002</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.120000</v>
+        <v>1349.12</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.727000</v>
+        <v>-169.727</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>62539.472007</v>
+        <v>62539.472006999997</v>
       </c>
       <c r="AF16" s="1">
         <v>17.372076</v>
       </c>
       <c r="AG16" s="1">
-        <v>1362.870000</v>
+        <v>1362.87</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.988000</v>
+        <v>-179.988</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>62549.976778</v>
+        <v>62549.976777999997</v>
       </c>
       <c r="AK16" s="1">
-        <v>17.374994</v>
+        <v>17.374994000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.430000</v>
+        <v>1384.43</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.809000</v>
+        <v>-209.809</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>62560.813869</v>
+        <v>62560.813868999998</v>
       </c>
       <c r="AP16" s="1">
-        <v>17.378004</v>
+        <v>17.378004000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.419000</v>
+        <v>-253.41900000000001</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>62571.899452</v>
+        <v>62571.899451999998</v>
       </c>
       <c r="AU16" s="1">
         <v>17.381083</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.180000</v>
+        <v>1432.18</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.979000</v>
+        <v>-312.97899999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>62582.971150</v>
+        <v>62582.971149999998</v>
       </c>
       <c r="AZ16" s="1">
         <v>17.384159</v>
       </c>
       <c r="BA16" s="1">
-        <v>1451.930000</v>
+        <v>1451.93</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.644000</v>
+        <v>-364.64400000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>62593.813199</v>
+        <v>62593.813198999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>17.387170</v>
+        <v>17.387170000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1538.900000</v>
+        <v>1538.9</v>
       </c>
       <c r="BG16" s="1">
-        <v>-610.443000</v>
+        <v>-610.44299999999998</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>62604.734609</v>
+        <v>62604.734608999999</v>
       </c>
       <c r="BJ16" s="1">
-        <v>17.390204</v>
+        <v>17.390204000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.530000</v>
+        <v>1695.53</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1050.040000</v>
+        <v>-1050.04</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>62616.346946</v>
+        <v>62616.346945999998</v>
       </c>
       <c r="BO16" s="1">
-        <v>17.393430</v>
+        <v>17.393429999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.350000</v>
+        <v>1993.35</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1807.990000</v>
+        <v>-1807.99</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>62627.361108</v>
+        <v>62627.361107999997</v>
       </c>
       <c r="BT16" s="1">
-        <v>17.396489</v>
+        <v>17.396488999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>2381.400000</v>
+        <v>2381.4</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2680.800000</v>
+        <v>-2680.8</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>62638.562262</v>
+        <v>62638.562261999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>17.399601</v>
+        <v>17.399601000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2867.410000</v>
+        <v>2867.41</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3626.420000</v>
+        <v>-3626.42</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>62650.801076</v>
+        <v>62650.801076000003</v>
       </c>
       <c r="CD16" s="1">
-        <v>17.403000</v>
+        <v>17.402999999999999</v>
       </c>
       <c r="CE16" s="1">
-        <v>4267.570000</v>
+        <v>4267.57</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5898.360000</v>
+        <v>-5898.36</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>62477.694794</v>
+        <v>62477.694794000003</v>
       </c>
       <c r="B17" s="1">
-        <v>17.354915</v>
+        <v>17.354914999999998</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.900000</v>
+        <v>1245.9000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-294.498000</v>
+        <v>-294.49799999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>62488.208491</v>
+        <v>62488.208490999998</v>
       </c>
       <c r="G17" s="1">
-        <v>17.357836</v>
+        <v>17.357835999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.890000</v>
+        <v>1269.8900000000001</v>
       </c>
       <c r="I17" s="1">
-        <v>-256.644000</v>
+        <v>-256.64400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
         <v>62498.390862</v>
@@ -4366,270 +4782,270 @@
         <v>17.360664</v>
       </c>
       <c r="M17" s="1">
-        <v>1304.600000</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-198.902000</v>
+        <v>-198.90199999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>62508.310848</v>
+        <v>62508.310848000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>17.363420</v>
+        <v>17.363420000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1316.770000</v>
+        <v>1316.77</v>
       </c>
       <c r="S17" s="1">
-        <v>-182.679000</v>
+        <v>-182.679</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>62519.147443</v>
+        <v>62519.147443000002</v>
       </c>
       <c r="V17" s="1">
-        <v>17.366430</v>
+        <v>17.366430000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1330.410000</v>
+        <v>1330.41</v>
       </c>
       <c r="X17" s="1">
-        <v>-170.357000</v>
+        <v>-170.357</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>62529.350645</v>
+        <v>62529.350644999999</v>
       </c>
       <c r="AA17" s="1">
-        <v>17.369264</v>
+        <v>17.369264000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.070000</v>
+        <v>1349.07</v>
       </c>
       <c r="AC17" s="1">
-        <v>-169.703000</v>
+        <v>-169.703</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>62539.814744</v>
+        <v>62539.814744000003</v>
       </c>
       <c r="AF17" s="1">
-        <v>17.372171</v>
+        <v>17.372171000000002</v>
       </c>
       <c r="AG17" s="1">
-        <v>1362.620000</v>
+        <v>1362.62</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.717000</v>
+        <v>-179.71700000000001</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>62550.326953</v>
+        <v>62550.326953000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>17.375091</v>
+        <v>17.375091000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.410000</v>
+        <v>1384.41</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.790000</v>
+        <v>-209.79</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>62561.170986</v>
+        <v>62561.170985999997</v>
       </c>
       <c r="AP17" s="1">
-        <v>17.378103</v>
+        <v>17.378102999999999</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1406.870000</v>
+        <v>1406.87</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.433000</v>
+        <v>-253.43299999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>62572.572028</v>
+        <v>62572.572028000002</v>
       </c>
       <c r="AU17" s="1">
-        <v>17.381270</v>
+        <v>17.381270000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.190000</v>
+        <v>1432.19</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.992000</v>
+        <v>-312.99200000000002</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>62583.429454</v>
+        <v>62583.429453999997</v>
       </c>
       <c r="AZ17" s="1">
-        <v>17.384286</v>
+        <v>17.384285999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1451.930000</v>
+        <v>1451.93</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.648000</v>
+        <v>-364.64800000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>62594.248699</v>
+        <v>62594.248699000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>17.387291</v>
+        <v>17.387291000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG17" s="1">
-        <v>-610.500000</v>
+        <v>-610.5</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
         <v>62605.123474</v>
       </c>
       <c r="BJ17" s="1">
-        <v>17.390312</v>
+        <v>17.390312000000002</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.560000</v>
+        <v>1695.56</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1050.040000</v>
+        <v>-1050.04</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>62616.763585</v>
+        <v>62616.763585000001</v>
       </c>
       <c r="BO17" s="1">
         <v>17.393545</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.370000</v>
+        <v>1993.37</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1808.030000</v>
+        <v>-1808.03</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>62627.790146</v>
+        <v>62627.790145999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>17.396608</v>
+        <v>17.396608000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2382.040000</v>
+        <v>2382.04</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2680.870000</v>
+        <v>-2680.87</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>62639.007703</v>
+        <v>62639.007703000003</v>
       </c>
       <c r="BY17" s="1">
-        <v>17.399724</v>
+        <v>17.399723999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2866.720000</v>
+        <v>2866.72</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3625.220000</v>
+        <v>-3625.22</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>62651.340195</v>
+        <v>62651.340194999997</v>
       </c>
       <c r="CD17" s="1">
-        <v>17.403150</v>
+        <v>17.40315</v>
       </c>
       <c r="CE17" s="1">
-        <v>4286.190000</v>
+        <v>4286.1899999999996</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5894.310000</v>
+        <v>-5894.31</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>62478.034057</v>
+        <v>62478.034056999997</v>
       </c>
       <c r="B18" s="1">
-        <v>17.355009</v>
+        <v>17.355008999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>1246.220000</v>
+        <v>1246.22</v>
       </c>
       <c r="D18" s="1">
-        <v>-294.271000</v>
+        <v>-294.27100000000002</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>62488.553708</v>
+        <v>62488.553707999999</v>
       </c>
       <c r="G18" s="1">
-        <v>17.357932</v>
+        <v>17.357932000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>1269.700000</v>
+        <v>1269.7</v>
       </c>
       <c r="I18" s="1">
-        <v>-255.926000</v>
+        <v>-255.92599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>62498.735594</v>
+        <v>62498.735593999998</v>
       </c>
       <c r="L18" s="1">
-        <v>17.360760</v>
+        <v>17.360759999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>1304.610000</v>
+        <v>1304.6099999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-198.862000</v>
+        <v>-198.86199999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>62509.003761</v>
@@ -4638,557 +5054,557 @@
         <v>17.363612</v>
       </c>
       <c r="R18" s="1">
-        <v>1316.760000</v>
+        <v>1316.76</v>
       </c>
       <c r="S18" s="1">
-        <v>-182.688000</v>
+        <v>-182.68799999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>62519.491169</v>
+        <v>62519.491169000001</v>
       </c>
       <c r="V18" s="1">
-        <v>17.366525</v>
+        <v>17.366524999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>1330.820000</v>
+        <v>1330.82</v>
       </c>
       <c r="X18" s="1">
-        <v>-170.585000</v>
+        <v>-170.58500000000001</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>62529.701342</v>
       </c>
       <c r="AA18" s="1">
-        <v>17.369361</v>
+        <v>17.369361000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>1348.990000</v>
+        <v>1348.99</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.673000</v>
+        <v>-169.673</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>62540.160454</v>
+        <v>62540.160453999997</v>
       </c>
       <c r="AF18" s="1">
-        <v>17.372267</v>
+        <v>17.372267000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1362.880000</v>
+        <v>1362.88</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.865000</v>
+        <v>-179.86500000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>62550.993113</v>
+        <v>62550.993112999997</v>
       </c>
       <c r="AK18" s="1">
-        <v>17.375276</v>
+        <v>17.375275999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.779000</v>
+        <v>-209.779</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>62561.846078</v>
+        <v>62561.846078000002</v>
       </c>
       <c r="AP18" s="1">
-        <v>17.378291</v>
+        <v>17.378291000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.455000</v>
+        <v>-253.45500000000001</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>62573.026858</v>
+        <v>62573.026857999997</v>
       </c>
       <c r="AU18" s="1">
-        <v>17.381396</v>
+        <v>17.381395999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.160000</v>
+        <v>1432.16</v>
       </c>
       <c r="AW18" s="1">
-        <v>-313.000000</v>
+        <v>-313</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>62583.687230</v>
+        <v>62583.687230000003</v>
       </c>
       <c r="AZ18" s="1">
-        <v>17.384358</v>
+        <v>17.384357999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.601000</v>
+        <v>-364.601</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>62594.611790</v>
+        <v>62594.611790000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>17.387392</v>
+        <v>17.387391999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1538.860000</v>
+        <v>1538.86</v>
       </c>
       <c r="BG18" s="1">
-        <v>-610.480000</v>
+        <v>-610.48</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>62605.499936</v>
       </c>
       <c r="BJ18" s="1">
-        <v>17.390417</v>
+        <v>17.390416999999999</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.540000</v>
+        <v>1695.54</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1050.030000</v>
+        <v>-1050.03</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>62617.179268</v>
       </c>
       <c r="BO18" s="1">
-        <v>17.393661</v>
+        <v>17.393661000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.210000</v>
+        <v>1993.21</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1808.000000</v>
+        <v>-1808</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>62628.210791</v>
+        <v>62628.210790999998</v>
       </c>
       <c r="BT18" s="1">
         <v>17.396725</v>
       </c>
       <c r="BU18" s="1">
-        <v>2382.290000</v>
+        <v>2382.29</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2681.430000</v>
+        <v>-2681.43</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>62639.430260</v>
+        <v>62639.430260000001</v>
       </c>
       <c r="BY18" s="1">
         <v>17.399842</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2866.720000</v>
+        <v>2866.72</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3626.240000</v>
+        <v>-3626.24</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>62651.880339</v>
+        <v>62651.880339000003</v>
       </c>
       <c r="CD18" s="1">
-        <v>17.403300</v>
+        <v>17.403300000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4269.760000</v>
+        <v>4269.76</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5887.240000</v>
+        <v>-5887.24</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>62478.374840</v>
+        <v>62478.374839999997</v>
       </c>
       <c r="B19" s="1">
-        <v>17.355104</v>
+        <v>17.355104000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>1246.230000</v>
+        <v>1246.23</v>
       </c>
       <c r="D19" s="1">
-        <v>-294.518000</v>
+        <v>-294.51799999999997</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>62489.241194</v>
+        <v>62489.241194000002</v>
       </c>
       <c r="G19" s="1">
-        <v>17.358123</v>
+        <v>17.358122999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1270.230000</v>
+        <v>1270.23</v>
       </c>
       <c r="I19" s="1">
-        <v>-255.882000</v>
+        <v>-255.88200000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>62499.433948</v>
+        <v>62499.433947999998</v>
       </c>
       <c r="L19" s="1">
         <v>17.360954</v>
       </c>
       <c r="M19" s="1">
-        <v>1304.310000</v>
+        <v>1304.31</v>
       </c>
       <c r="N19" s="1">
-        <v>-198.813000</v>
+        <v>-198.81299999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>62509.356432</v>
       </c>
       <c r="Q19" s="1">
-        <v>17.363710</v>
+        <v>17.363710000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1316.930000</v>
+        <v>1316.93</v>
       </c>
       <c r="S19" s="1">
-        <v>-182.651000</v>
+        <v>-182.65100000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>62519.833410</v>
+        <v>62519.833409999999</v>
       </c>
       <c r="V19" s="1">
-        <v>17.366620</v>
+        <v>17.366620000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>1330.580000</v>
+        <v>1330.58</v>
       </c>
       <c r="X19" s="1">
-        <v>-170.627000</v>
+        <v>-170.62700000000001</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>62530.050996</v>
+        <v>62530.050995999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>17.369459</v>
+        <v>17.369458999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.140000</v>
+        <v>1349.14</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.738000</v>
+        <v>-169.738</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>62540.820631</v>
+        <v>62540.820631000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>17.372450</v>
+        <v>17.372450000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>1362.900000</v>
+        <v>1362.9</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.803000</v>
+        <v>-179.803</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>62551.375005</v>
+        <v>62551.375005000002</v>
       </c>
       <c r="AK19" s="1">
-        <v>17.375382</v>
+        <v>17.375381999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.420000</v>
+        <v>1384.42</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.781000</v>
+        <v>-209.78100000000001</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>62562.281033</v>
+        <v>62562.281032999999</v>
       </c>
       <c r="AP19" s="1">
         <v>17.378411</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1406.900000</v>
+        <v>1406.9</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.460000</v>
+        <v>-253.46</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>62573.391953</v>
+        <v>62573.391952999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>17.381498</v>
+        <v>17.381498000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.170000</v>
+        <v>1432.17</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.964000</v>
+        <v>-312.964</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>62584.046974</v>
+        <v>62584.046973999997</v>
       </c>
       <c r="AZ19" s="1">
-        <v>17.384457</v>
+        <v>17.384457000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.629000</v>
+        <v>-364.62900000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>62594.972846</v>
+        <v>62594.972845999997</v>
       </c>
       <c r="BE19" s="1">
-        <v>17.387492</v>
+        <v>17.387492000000002</v>
       </c>
       <c r="BF19" s="1">
-        <v>1538.840000</v>
+        <v>1538.84</v>
       </c>
       <c r="BG19" s="1">
-        <v>-610.533000</v>
+        <v>-610.53300000000002</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>62605.938895</v>
+        <v>62605.938894999999</v>
       </c>
       <c r="BJ19" s="1">
         <v>17.390539</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.570000</v>
+        <v>1695.57</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1049.960000</v>
+        <v>-1049.96</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>62617.584259</v>
+        <v>62617.584259000003</v>
       </c>
       <c r="BO19" s="1">
-        <v>17.393773</v>
+        <v>17.393772999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.170000</v>
+        <v>1993.17</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1808.010000</v>
+        <v>-1808.01</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>62628.633202</v>
+        <v>62628.633201999997</v>
       </c>
       <c r="BT19" s="1">
-        <v>17.396843</v>
+        <v>17.396843000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>2383.130000</v>
+        <v>2383.13</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2681.330000</v>
+        <v>-2681.33</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>62639.856819</v>
+        <v>62639.856819000001</v>
       </c>
       <c r="BY19" s="1">
-        <v>17.399960</v>
+        <v>17.39996</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2866.660000</v>
+        <v>2866.66</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3626.220000</v>
+        <v>-3626.22</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>62652.422002</v>
+        <v>62652.422001999999</v>
       </c>
       <c r="CD19" s="1">
         <v>17.403451</v>
       </c>
       <c r="CE19" s="1">
-        <v>4278.910000</v>
+        <v>4278.91</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5904.830000</v>
+        <v>-5904.83</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>62479.060280</v>
+        <v>62479.060279999998</v>
       </c>
       <c r="B20" s="1">
-        <v>17.355295</v>
+        <v>17.355295000000002</v>
       </c>
       <c r="C20" s="1">
-        <v>1246.450000</v>
+        <v>1246.45</v>
       </c>
       <c r="D20" s="1">
-        <v>-294.208000</v>
+        <v>-294.20800000000003</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>62489.585881</v>
+        <v>62489.585880999999</v>
       </c>
       <c r="G20" s="1">
-        <v>17.358218</v>
+        <v>17.358218000000001</v>
       </c>
       <c r="H20" s="1">
-        <v>1269.130000</v>
+        <v>1269.1300000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-256.703000</v>
+        <v>-256.70299999999997</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>62499.782139</v>
+        <v>62499.782139000003</v>
       </c>
       <c r="L20" s="1">
         <v>17.361051</v>
       </c>
       <c r="M20" s="1">
-        <v>1304.710000</v>
+        <v>1304.71</v>
       </c>
       <c r="N20" s="1">
-        <v>-199.103000</v>
+        <v>-199.10300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>62509.690255</v>
+        <v>62509.690255000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>17.363803</v>
+        <v>17.363803000000001</v>
       </c>
       <c r="R20" s="1">
-        <v>1316.900000</v>
+        <v>1316.9</v>
       </c>
       <c r="S20" s="1">
-        <v>-182.736000</v>
+        <v>-182.73599999999999</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>62520.496064</v>
+        <v>62520.496063999999</v>
       </c>
       <c r="V20" s="1">
-        <v>17.366804</v>
+        <v>17.366803999999998</v>
       </c>
       <c r="W20" s="1">
-        <v>1330.630000</v>
+        <v>1330.63</v>
       </c>
       <c r="X20" s="1">
-        <v>-170.373000</v>
+        <v>-170.37299999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>62530.711198</v>
+        <v>62530.711197999997</v>
       </c>
       <c r="AA20" s="1">
-        <v>17.369642</v>
+        <v>17.369641999999999</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.090000</v>
+        <v>1349.09</v>
       </c>
       <c r="AC20" s="1">
-        <v>-169.672000</v>
+        <v>-169.672</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>62541.191218</v>
@@ -5197,542 +5613,542 @@
         <v>17.372553</v>
       </c>
       <c r="AG20" s="1">
-        <v>1362.710000</v>
+        <v>1362.71</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.722000</v>
+        <v>-179.72200000000001</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>62551.723551</v>
+        <v>62551.723551000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>17.375479</v>
+        <v>17.375478999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.845000</v>
+        <v>-209.845</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>62562.641129</v>
+        <v>62562.641129000003</v>
       </c>
       <c r="AP20" s="1">
         <v>17.378511</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.434000</v>
+        <v>-253.434</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>62573.756014</v>
+        <v>62573.756013999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>17.381599</v>
+        <v>17.381599000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.120000</v>
+        <v>1432.12</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.968000</v>
+        <v>-312.96800000000002</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>62584.475557</v>
+        <v>62584.475556999998</v>
       </c>
       <c r="AZ20" s="1">
         <v>17.384577</v>
       </c>
       <c r="BA20" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.603000</v>
+        <v>-364.60300000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>62595.398413</v>
+        <v>62595.398413000003</v>
       </c>
       <c r="BE20" s="1">
         <v>17.387611</v>
       </c>
       <c r="BF20" s="1">
-        <v>1538.880000</v>
+        <v>1538.88</v>
       </c>
       <c r="BG20" s="1">
-        <v>-610.479000</v>
+        <v>-610.47900000000004</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>62606.248401</v>
+        <v>62606.248400999997</v>
       </c>
       <c r="BJ20" s="1">
         <v>17.390625</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.570000</v>
+        <v>1695.57</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1050.040000</v>
+        <v>-1050.04</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>62617.982256</v>
+        <v>62617.982256000003</v>
       </c>
       <c r="BO20" s="1">
         <v>17.393884</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.250000</v>
+        <v>1993.25</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1808.020000</v>
+        <v>-1808.02</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>62629.059444</v>
+        <v>62629.059443999999</v>
       </c>
       <c r="BT20" s="1">
-        <v>17.396961</v>
+        <v>17.396961000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>2383.810000</v>
+        <v>2383.81</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2681.420000</v>
+        <v>-2681.42</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>62640.304210</v>
+        <v>62640.304210000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>17.400085</v>
+        <v>17.400085000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2867.070000</v>
+        <v>2867.07</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3625.340000</v>
+        <v>-3625.34</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>62652.961123</v>
+        <v>62652.961123000001</v>
       </c>
       <c r="CD20" s="1">
-        <v>17.403600</v>
+        <v>17.403600000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>4277.600000</v>
+        <v>4277.6000000000004</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5881.400000</v>
+        <v>-5881.4</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
         <v>62479.402552</v>
       </c>
       <c r="B21" s="1">
-        <v>17.355390</v>
+        <v>17.35539</v>
       </c>
       <c r="C21" s="1">
-        <v>1246.430000</v>
+        <v>1246.43</v>
       </c>
       <c r="D21" s="1">
-        <v>-294.277000</v>
+        <v>-294.27699999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>62489.933578</v>
+        <v>62489.933577999996</v>
       </c>
       <c r="G21" s="1">
-        <v>17.358315</v>
+        <v>17.358315000000001</v>
       </c>
       <c r="H21" s="1">
-        <v>1271.530000</v>
+        <v>1271.53</v>
       </c>
       <c r="I21" s="1">
-        <v>-255.695000</v>
+        <v>-255.69499999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>62500.147221</v>
+        <v>62500.147220999999</v>
       </c>
       <c r="L21" s="1">
-        <v>17.361152</v>
+        <v>17.361152000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1304.520000</v>
+        <v>1304.52</v>
       </c>
       <c r="N21" s="1">
-        <v>-198.962000</v>
+        <v>-198.96199999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>62510.360318</v>
+        <v>62510.360317999999</v>
       </c>
       <c r="Q21" s="1">
         <v>17.363989</v>
       </c>
       <c r="R21" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S21" s="1">
-        <v>-182.841000</v>
+        <v>-182.84100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>62520.866576</v>
       </c>
       <c r="V21" s="1">
-        <v>17.366907</v>
+        <v>17.366907000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1330.630000</v>
+        <v>1330.63</v>
       </c>
       <c r="X21" s="1">
-        <v>-170.831000</v>
+        <v>-170.83099999999999</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>62531.095074</v>
+        <v>62531.095073999997</v>
       </c>
       <c r="AA21" s="1">
-        <v>17.369749</v>
+        <v>17.369748999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.160000</v>
+        <v>1349.16</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.745000</v>
+        <v>-169.745</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>62541.534870</v>
+        <v>62541.534870000003</v>
       </c>
       <c r="AF21" s="1">
-        <v>17.372649</v>
+        <v>17.372648999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1362.810000</v>
+        <v>1362.81</v>
       </c>
       <c r="AH21" s="1">
-        <v>-180.089000</v>
+        <v>-180.089</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>62552.072374</v>
+        <v>62552.072374000003</v>
       </c>
       <c r="AK21" s="1">
-        <v>17.375576</v>
+        <v>17.375575999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.410000</v>
+        <v>1384.41</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.800000</v>
+        <v>-209.8</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>62563.000769</v>
+        <v>62563.000768999998</v>
       </c>
       <c r="AP21" s="1">
-        <v>17.378611</v>
+        <v>17.378610999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1406.920000</v>
+        <v>1406.92</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.426000</v>
+        <v>-253.42599999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>62574.178605</v>
+        <v>62574.178605000001</v>
       </c>
       <c r="AU21" s="1">
-        <v>17.381716</v>
+        <v>17.381716000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.180000</v>
+        <v>1432.18</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.975000</v>
+        <v>-312.97500000000002</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>62584.762236</v>
+        <v>62584.762236000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>17.384656</v>
       </c>
       <c r="BA21" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.670000</v>
+        <v>-364.67</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>62595.694030</v>
+        <v>62595.694029999999</v>
       </c>
       <c r="BE21" s="1">
-        <v>17.387693</v>
+        <v>17.387692999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1538.840000</v>
+        <v>1538.84</v>
       </c>
       <c r="BG21" s="1">
-        <v>-610.467000</v>
+        <v>-610.46699999999998</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>62606.633296</v>
       </c>
       <c r="BJ21" s="1">
-        <v>17.390731</v>
+        <v>17.390730999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.610000</v>
+        <v>1695.61</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1049.990000</v>
+        <v>-1049.99</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>62618.398896</v>
+        <v>62618.398895999999</v>
       </c>
       <c r="BO21" s="1">
-        <v>17.394000</v>
+        <v>17.393999999999998</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.320000</v>
+        <v>1993.32</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1808.020000</v>
+        <v>-1808.02</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>62629.473568</v>
+        <v>62629.473568000001</v>
       </c>
       <c r="BT21" s="1">
-        <v>17.397076</v>
+        <v>17.397075999999998</v>
       </c>
       <c r="BU21" s="1">
-        <v>2384.040000</v>
+        <v>2384.04</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2680.840000</v>
+        <v>-2680.84</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>62640.734278</v>
+        <v>62640.734278000004</v>
       </c>
       <c r="BY21" s="1">
-        <v>17.400204</v>
+        <v>17.400203999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2866.490000</v>
+        <v>2866.49</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3625.230000</v>
+        <v>-3625.23</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>62653.499312</v>
       </c>
       <c r="CD21" s="1">
-        <v>17.403750</v>
+        <v>17.403749999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4267.850000</v>
+        <v>4267.8500000000004</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5900.690000</v>
+        <v>-5900.69</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>62479.742774</v>
+        <v>62479.742773999998</v>
       </c>
       <c r="B22" s="1">
-        <v>17.355484</v>
+        <v>17.355484000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1246.160000</v>
+        <v>1246.1600000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-294.505000</v>
+        <v>-294.505</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>62490.592760</v>
+        <v>62490.59276</v>
       </c>
       <c r="G22" s="1">
-        <v>17.358498</v>
+        <v>17.358498000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I22" s="1">
-        <v>-256.243000</v>
+        <v>-256.24299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>62500.600540</v>
+        <v>62500.600539999999</v>
       </c>
       <c r="L22" s="1">
-        <v>17.361278</v>
+        <v>17.361277999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>1304.440000</v>
+        <v>1304.44</v>
       </c>
       <c r="N22" s="1">
-        <v>-198.904000</v>
+        <v>-198.904</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>62510.758605</v>
+        <v>62510.758605000003</v>
       </c>
       <c r="Q22" s="1">
-        <v>17.364100</v>
+        <v>17.364100000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1316.690000</v>
+        <v>1316.69</v>
       </c>
       <c r="S22" s="1">
-        <v>-182.866000</v>
+        <v>-182.86600000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>62521.217248</v>
+        <v>62521.217248000001</v>
       </c>
       <c r="V22" s="1">
-        <v>17.367005</v>
+        <v>17.367004999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>1330.590000</v>
+        <v>1330.59</v>
       </c>
       <c r="X22" s="1">
-        <v>-170.521000</v>
+        <v>-170.52099999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>62531.444293</v>
       </c>
       <c r="AA22" s="1">
-        <v>17.369846</v>
+        <v>17.369845999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.150000</v>
+        <v>1349.15</v>
       </c>
       <c r="AC22" s="1">
-        <v>-169.720000</v>
+        <v>-169.72</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>62541.882069</v>
+        <v>62541.882068999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>17.372745</v>
+        <v>17.372744999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1362.820000</v>
+        <v>1362.82</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.865000</v>
+        <v>-179.86500000000001</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>62552.503895</v>
+        <v>62552.503895000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>17.375696</v>
+        <v>17.375696000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.420000</v>
+        <v>1384.42</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.793000</v>
+        <v>-209.79300000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
         <v>62563.424346</v>
@@ -5741,136 +6157,136 @@
         <v>17.378729</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.460000</v>
+        <v>-253.46</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>62574.485097</v>
+        <v>62574.485096999997</v>
       </c>
       <c r="AU22" s="1">
-        <v>17.381801</v>
+        <v>17.381800999999999</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.160000</v>
+        <v>1432.16</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.994000</v>
+        <v>-312.99400000000003</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>62585.111884</v>
+        <v>62585.111883999998</v>
       </c>
       <c r="AZ22" s="1">
         <v>17.384753</v>
       </c>
       <c r="BA22" s="1">
-        <v>1451.970000</v>
+        <v>1451.97</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.623000</v>
+        <v>-364.62299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>62596.054621</v>
+        <v>62596.054621000003</v>
       </c>
       <c r="BE22" s="1">
-        <v>17.387793</v>
+        <v>17.387792999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG22" s="1">
-        <v>-610.458000</v>
+        <v>-610.45799999999997</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>62607.024638</v>
+        <v>62607.024638000003</v>
       </c>
       <c r="BJ22" s="1">
-        <v>17.390840</v>
+        <v>17.390840000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.550000</v>
+        <v>1695.55</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1049.900000</v>
+        <v>-1049.9000000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>62619.217294</v>
+        <v>62619.217294000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>17.394227</v>
+        <v>17.394227000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.200000</v>
+        <v>1993.2</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1808.020000</v>
+        <v>-1808.02</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>62629.901622</v>
+        <v>62629.901621999998</v>
       </c>
       <c r="BT22" s="1">
         <v>17.397195</v>
       </c>
       <c r="BU22" s="1">
-        <v>2385.010000</v>
+        <v>2385.0100000000002</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2680.590000</v>
+        <v>-2680.59</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>62641.157331</v>
+        <v>62641.157331000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>17.400321</v>
+        <v>17.400321000000002</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2866.610000</v>
+        <v>2866.61</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3625.910000</v>
+        <v>-3625.91</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
         <v>62654.043888</v>
       </c>
       <c r="CD22" s="1">
-        <v>17.403901</v>
+        <v>17.403901000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>4285.990000</v>
+        <v>4285.99</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5889.510000</v>
+        <v>-5889.51</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>62480.400469</v>
       </c>
@@ -5878,737 +6294,737 @@
         <v>17.355667</v>
       </c>
       <c r="C23" s="1">
-        <v>1246.210000</v>
+        <v>1246.21</v>
       </c>
       <c r="D23" s="1">
-        <v>-294.381000</v>
+        <v>-294.38099999999997</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>62490.966744</v>
+        <v>62490.966743999998</v>
       </c>
       <c r="G23" s="1">
-        <v>17.358602</v>
+        <v>17.358602000000001</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.990000</v>
+        <v>1269.99</v>
       </c>
       <c r="I23" s="1">
-        <v>-256.362000</v>
+        <v>-256.36200000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>62500.851515</v>
+        <v>62500.851515000002</v>
       </c>
       <c r="L23" s="1">
         <v>17.361348</v>
       </c>
       <c r="M23" s="1">
-        <v>1304.660000</v>
+        <v>1304.6600000000001</v>
       </c>
       <c r="N23" s="1">
-        <v>-198.848000</v>
+        <v>-198.84800000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>62511.096877</v>
+        <v>62511.096877000004</v>
       </c>
       <c r="Q23" s="1">
-        <v>17.364194</v>
+        <v>17.364194000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>1316.750000</v>
+        <v>1316.75</v>
       </c>
       <c r="S23" s="1">
-        <v>-182.689000</v>
+        <v>-182.68899999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>62521.559505</v>
+        <v>62521.559504999997</v>
       </c>
       <c r="V23" s="1">
-        <v>17.367100</v>
+        <v>17.367100000000001</v>
       </c>
       <c r="W23" s="1">
-        <v>1330.690000</v>
+        <v>1330.69</v>
       </c>
       <c r="X23" s="1">
-        <v>-170.583000</v>
+        <v>-170.583</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>62531.794466</v>
+        <v>62531.794465999999</v>
       </c>
       <c r="AA23" s="1">
-        <v>17.369943</v>
+        <v>17.369942999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.090000</v>
+        <v>1349.09</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.601000</v>
+        <v>-169.601</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>62542.309661</v>
+        <v>62542.309660999999</v>
       </c>
       <c r="AF23" s="1">
         <v>17.372864</v>
       </c>
       <c r="AG23" s="1">
-        <v>1362.780000</v>
+        <v>1362.78</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.741000</v>
+        <v>-179.74100000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>62552.781158</v>
+        <v>62552.781157999998</v>
       </c>
       <c r="AK23" s="1">
-        <v>17.375773</v>
+        <v>17.375772999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.430000</v>
+        <v>1384.43</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.805000</v>
+        <v>-209.80500000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>62563.722903</v>
+        <v>62563.722903000002</v>
       </c>
       <c r="AP23" s="1">
         <v>17.378812</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1406.860000</v>
+        <v>1406.86</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.420000</v>
+        <v>-253.42</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>62574.848168</v>
+        <v>62574.848167999997</v>
       </c>
       <c r="AU23" s="1">
         <v>17.381902</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.140000</v>
+        <v>1432.14</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.981000</v>
+        <v>-312.98099999999999</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>62585.481404</v>
+        <v>62585.481403999998</v>
       </c>
       <c r="AZ23" s="1">
-        <v>17.384856</v>
+        <v>17.384855999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>1451.940000</v>
+        <v>1451.94</v>
       </c>
       <c r="BB23" s="1">
-        <v>-364.654000</v>
+        <v>-364.654</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>62596.419677</v>
+        <v>62596.419676999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>17.387894</v>
+        <v>17.387893999999999</v>
       </c>
       <c r="BF23" s="1">
-        <v>1538.850000</v>
+        <v>1538.85</v>
       </c>
       <c r="BG23" s="1">
-        <v>-610.490000</v>
+        <v>-610.49</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>62607.774622</v>
+        <v>62607.774621999997</v>
       </c>
       <c r="BJ23" s="1">
-        <v>17.391049</v>
+        <v>17.391048999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.540000</v>
+        <v>1695.54</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1049.970000</v>
+        <v>-1049.97</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>62619.630958</v>
+        <v>62619.630958000002</v>
       </c>
       <c r="BO23" s="1">
-        <v>17.394342</v>
+        <v>17.394342000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.060000</v>
+        <v>1993.06</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1807.880000</v>
+        <v>-1807.88</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>62630.332143</v>
       </c>
       <c r="BT23" s="1">
-        <v>17.397314</v>
+        <v>17.397314000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>2385.070000</v>
+        <v>2385.0700000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2679.910000</v>
+        <v>-2679.91</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>62641.577968</v>
+        <v>62641.577967999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>17.400438</v>
+        <v>17.400438000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2867.800000</v>
+        <v>2867.8</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3625.320000</v>
+        <v>-3625.32</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>62654.883616</v>
+        <v>62654.883615999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>17.404134</v>
+        <v>17.404133999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>4275.000000</v>
+        <v>4275</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5903.080000</v>
+        <v>-5903.08</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>62480.769989</v>
       </c>
       <c r="B24" s="1">
-        <v>17.355769</v>
+        <v>17.355768999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1246.400000</v>
+        <v>1246.4000000000001</v>
       </c>
       <c r="D24" s="1">
-        <v>-294.337000</v>
+        <v>-294.33699999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>62491.311463</v>
+        <v>62491.311462999998</v>
       </c>
       <c r="G24" s="1">
         <v>17.358698</v>
       </c>
       <c r="H24" s="1">
-        <v>1270.710000</v>
+        <v>1270.71</v>
       </c>
       <c r="I24" s="1">
-        <v>-255.238000</v>
+        <v>-255.238</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>62501.194564</v>
+        <v>62501.194563999998</v>
       </c>
       <c r="L24" s="1">
-        <v>17.361443</v>
+        <v>17.361443000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1304.570000</v>
+        <v>1304.57</v>
       </c>
       <c r="N24" s="1">
-        <v>-198.858000</v>
+        <v>-198.858</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>62511.444609</v>
+        <v>62511.444608999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>17.364290</v>
+        <v>17.36429</v>
       </c>
       <c r="R24" s="1">
-        <v>1316.830000</v>
+        <v>1316.83</v>
       </c>
       <c r="S24" s="1">
-        <v>-182.645000</v>
+        <v>-182.64500000000001</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>62521.980094</v>
+        <v>62521.980093999999</v>
       </c>
       <c r="V24" s="1">
         <v>17.367217</v>
       </c>
       <c r="W24" s="1">
-        <v>1330.790000</v>
+        <v>1330.79</v>
       </c>
       <c r="X24" s="1">
-        <v>-170.730000</v>
+        <v>-170.73</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>62532.238850</v>
+        <v>62532.238850000002</v>
       </c>
       <c r="AA24" s="1">
-        <v>17.370066</v>
+        <v>17.370066000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.100000</v>
+        <v>1349.1</v>
       </c>
       <c r="AC24" s="1">
-        <v>-169.611000</v>
+        <v>-169.61099999999999</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>62542.585923</v>
+        <v>62542.585922999999</v>
       </c>
       <c r="AF24" s="1">
-        <v>17.372941</v>
+        <v>17.372941000000001</v>
       </c>
       <c r="AG24" s="1">
-        <v>1362.640000</v>
+        <v>1362.64</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.794000</v>
+        <v>-179.79400000000001</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>62553.126870</v>
+        <v>62553.12687</v>
       </c>
       <c r="AK24" s="1">
-        <v>17.375869</v>
+        <v>17.375869000000002</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.440000</v>
+        <v>1384.44</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.805000</v>
+        <v>-209.80500000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>62564.080519</v>
+        <v>62564.080519000003</v>
       </c>
       <c r="AP24" s="1">
-        <v>17.378911</v>
+        <v>17.378910999999999</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.424000</v>
+        <v>-253.42400000000001</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>62575.213753</v>
+        <v>62575.213753000004</v>
       </c>
       <c r="AU24" s="1">
-        <v>17.382004</v>
+        <v>17.382003999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.170000</v>
+        <v>1432.17</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.954000</v>
+        <v>-312.95400000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>62586.196138</v>
+        <v>62586.196137999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>17.385054</v>
       </c>
       <c r="BA24" s="1">
-        <v>1451.950000</v>
+        <v>1451.95</v>
       </c>
       <c r="BB24" s="1">
-        <v>-364.650000</v>
+        <v>-364.65</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>62597.136210</v>
+        <v>62597.136209999997</v>
       </c>
       <c r="BE24" s="1">
-        <v>17.388093</v>
+        <v>17.388093000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG24" s="1">
-        <v>-610.458000</v>
+        <v>-610.45799999999997</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>62608.176348</v>
+        <v>62608.176348000001</v>
       </c>
       <c r="BJ24" s="1">
-        <v>17.391160</v>
+        <v>17.391159999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.600000</v>
+        <v>1695.6</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1049.940000</v>
+        <v>-1049.94</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>62620.033215</v>
+        <v>62620.033215000003</v>
       </c>
       <c r="BO24" s="1">
         <v>17.394454</v>
       </c>
       <c r="BP24" s="1">
-        <v>1993.130000</v>
+        <v>1993.13</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1807.950000</v>
+        <v>-1807.95</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>62630.741840</v>
+        <v>62630.741840000002</v>
       </c>
       <c r="BT24" s="1">
-        <v>17.397428</v>
+        <v>17.397428000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>2385.620000</v>
+        <v>2385.62</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2679.200000</v>
+        <v>-2679.2</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>62642.319487</v>
+        <v>62642.319487000001</v>
       </c>
       <c r="BY24" s="1">
         <v>17.400644</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2866.850000</v>
+        <v>2866.85</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3625.110000</v>
+        <v>-3625.11</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>62655.118224</v>
+        <v>62655.118223999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>17.404200</v>
+        <v>17.404199999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>4274.480000</v>
+        <v>4274.4799999999996</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5901.680000</v>
+        <v>-5901.68</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>62481.113232</v>
+        <v>62481.113232000003</v>
       </c>
       <c r="B25" s="1">
-        <v>17.355865</v>
+        <v>17.355865000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1246.330000</v>
+        <v>1246.33</v>
       </c>
       <c r="D25" s="1">
-        <v>-294.434000</v>
+        <v>-294.43400000000003</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>62491.655190</v>
+        <v>62491.655189999998</v>
       </c>
       <c r="G25" s="1">
-        <v>17.358793</v>
+        <v>17.358792999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.980000</v>
+        <v>1269.98</v>
       </c>
       <c r="I25" s="1">
-        <v>-256.231000</v>
+        <v>-256.23099999999999</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>62501.617337</v>
+        <v>62501.617337000003</v>
       </c>
       <c r="L25" s="1">
-        <v>17.361560</v>
+        <v>17.361560000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1304.610000</v>
+        <v>1304.6099999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-198.864000</v>
+        <v>-198.864</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>62511.878109</v>
+        <v>62511.878108999997</v>
       </c>
       <c r="Q25" s="1">
         <v>17.364411</v>
       </c>
       <c r="R25" s="1">
-        <v>1316.820000</v>
+        <v>1316.82</v>
       </c>
       <c r="S25" s="1">
-        <v>-182.626000</v>
+        <v>-182.626</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>62522.256402</v>
+        <v>62522.256401999999</v>
       </c>
       <c r="V25" s="1">
         <v>17.367293</v>
       </c>
       <c r="W25" s="1">
-        <v>1330.760000</v>
+        <v>1330.76</v>
       </c>
       <c r="X25" s="1">
-        <v>-170.686000</v>
+        <v>-170.68600000000001</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>62532.505698</v>
+        <v>62532.505698000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>17.370140</v>
+        <v>17.370139999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.130000</v>
+        <v>1349.13</v>
       </c>
       <c r="AC25" s="1">
-        <v>-169.566000</v>
+        <v>-169.566</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>62542.930122</v>
+        <v>62542.930121999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>17.373036</v>
+        <v>17.373035999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1362.940000</v>
+        <v>1362.94</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.752000</v>
+        <v>-179.75200000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>62553.476084</v>
+        <v>62553.476084000002</v>
       </c>
       <c r="AK25" s="1">
-        <v>17.375966</v>
+        <v>17.375965999999998</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.390000</v>
+        <v>1384.39</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.800000</v>
+        <v>-209.8</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>62564.443127</v>
+        <v>62564.443126999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>17.379012</v>
+        <v>17.379011999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.435000</v>
+        <v>-253.435</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>62575.940855</v>
+        <v>62575.940855000001</v>
       </c>
       <c r="AU25" s="1">
         <v>17.382206</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.160000</v>
+        <v>1432.16</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.971000</v>
+        <v>-312.971</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>62586.559210</v>
+        <v>62586.559209999999</v>
       </c>
       <c r="AZ25" s="1">
-        <v>17.385155</v>
+        <v>17.385155000000001</v>
       </c>
       <c r="BA25" s="1">
-        <v>1451.920000</v>
+        <v>1451.92</v>
       </c>
       <c r="BB25" s="1">
-        <v>-364.636000</v>
+        <v>-364.63600000000002</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>62597.500470</v>
+        <v>62597.500469999999</v>
       </c>
       <c r="BE25" s="1">
         <v>17.388195</v>
       </c>
       <c r="BF25" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG25" s="1">
-        <v>-610.457000</v>
+        <v>-610.45699999999999</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>62608.551724</v>
+        <v>62608.551723999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>17.391264</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.530000</v>
+        <v>1695.53</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1049.970000</v>
+        <v>-1049.97</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>62620.767292</v>
+        <v>62620.767291999997</v>
       </c>
       <c r="BO25" s="1">
         <v>17.394658</v>
       </c>
       <c r="BP25" s="1">
-        <v>1993.240000</v>
+        <v>1993.24</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1807.750000</v>
+        <v>-1807.75</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>62631.481406</v>
+        <v>62631.481405999999</v>
       </c>
       <c r="BT25" s="1">
         <v>17.397634</v>
       </c>
       <c r="BU25" s="1">
-        <v>2385.070000</v>
+        <v>2385.0700000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2678.610000</v>
+        <v>-2678.61</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
         <v>62642.442959</v>
@@ -6617,75 +7033,75 @@
         <v>17.400679</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2866.870000</v>
+        <v>2866.87</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3625.270000</v>
+        <v>-3625.27</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>62655.639518</v>
+        <v>62655.639518000004</v>
       </c>
       <c r="CD25" s="1">
-        <v>17.404344</v>
+        <v>17.404343999999998</v>
       </c>
       <c r="CE25" s="1">
-        <v>4286.290000</v>
+        <v>4286.29</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5891.750000</v>
+        <v>-5891.75</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>62481.454964</v>
+        <v>62481.454963999997</v>
       </c>
       <c r="B26" s="1">
-        <v>17.355960</v>
+        <v>17.35596</v>
       </c>
       <c r="C26" s="1">
-        <v>1246.460000</v>
+        <v>1246.46</v>
       </c>
       <c r="D26" s="1">
-        <v>-294.505000</v>
+        <v>-294.505</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>62492.079765</v>
+        <v>62492.079765000002</v>
       </c>
       <c r="G26" s="1">
-        <v>17.358911</v>
+        <v>17.358910999999999</v>
       </c>
       <c r="H26" s="1">
-        <v>1269.990000</v>
+        <v>1269.99</v>
       </c>
       <c r="I26" s="1">
-        <v>-255.163000</v>
+        <v>-255.16300000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>62501.891627</v>
+        <v>62501.891626999997</v>
       </c>
       <c r="L26" s="1">
-        <v>17.361637</v>
+        <v>17.361637000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1304.600000</v>
+        <v>1304.5999999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-198.770000</v>
+        <v>-198.77</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
         <v>62512.154875</v>
@@ -6694,210 +7110,211 @@
         <v>17.364487</v>
       </c>
       <c r="R26" s="1">
-        <v>1316.840000</v>
+        <v>1316.84</v>
       </c>
       <c r="S26" s="1">
-        <v>-182.694000</v>
+        <v>-182.69399999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>62522.601097</v>
+        <v>62522.601096999999</v>
       </c>
       <c r="V26" s="1">
-        <v>17.367389</v>
+        <v>17.367388999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1330.740000</v>
+        <v>1330.74</v>
       </c>
       <c r="X26" s="1">
-        <v>-170.606000</v>
+        <v>-170.60599999999999</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>62532.848960</v>
+        <v>62532.848960000003</v>
       </c>
       <c r="AA26" s="1">
-        <v>17.370236</v>
+        <v>17.370235999999998</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.170000</v>
+        <v>1349.17</v>
       </c>
       <c r="AC26" s="1">
-        <v>-169.637000</v>
+        <v>-169.637</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>62543.274834</v>
+        <v>62543.274834000003</v>
       </c>
       <c r="AF26" s="1">
-        <v>17.373132</v>
+        <v>17.373131999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1362.920000</v>
+        <v>1362.92</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.693000</v>
+        <v>-179.69300000000001</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>62554.170452</v>
+        <v>62554.170451999998</v>
       </c>
       <c r="AK26" s="1">
         <v>17.376158</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.430000</v>
+        <v>1384.43</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.830000</v>
+        <v>-209.83</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>62565.168741</v>
+        <v>62565.168741000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>17.379214</v>
+        <v>17.379214000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1406.880000</v>
+        <v>1406.88</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.430000</v>
+        <v>-253.43</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>62576.336166</v>
+        <v>62576.336166000001</v>
       </c>
       <c r="AU26" s="1">
-        <v>17.382316</v>
+        <v>17.382315999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.170000</v>
+        <v>1432.17</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.965000</v>
+        <v>-312.96499999999997</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>62586.913848</v>
+        <v>62586.913847999997</v>
       </c>
       <c r="AZ26" s="1">
         <v>17.385254</v>
       </c>
       <c r="BA26" s="1">
-        <v>1451.960000</v>
+        <v>1451.96</v>
       </c>
       <c r="BB26" s="1">
-        <v>-364.617000</v>
+        <v>-364.61700000000002</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>62597.861578</v>
+        <v>62597.861577999996</v>
       </c>
       <c r="BE26" s="1">
-        <v>17.388295</v>
+        <v>17.388294999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1538.870000</v>
+        <v>1538.87</v>
       </c>
       <c r="BG26" s="1">
-        <v>-610.414000</v>
+        <v>-610.41399999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>62609.235100</v>
+        <v>62609.235099999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>17.391454</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.510000</v>
+        <v>1695.51</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1049.860000</v>
+        <v>-1049.8599999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>62620.878433</v>
+        <v>62620.878432999998</v>
       </c>
       <c r="BO26" s="1">
-        <v>17.394688</v>
+        <v>17.394687999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1993.200000</v>
+        <v>1993.2</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1807.680000</v>
+        <v>-1807.68</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>62631.601406</v>
+        <v>62631.601406000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>17.397667</v>
+        <v>17.397666999999998</v>
       </c>
       <c r="BU26" s="1">
-        <v>2385.210000</v>
+        <v>2385.21</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2677.810000</v>
+        <v>-2677.81</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>62642.855631</v>
+        <v>62642.855630999999</v>
       </c>
       <c r="BY26" s="1">
         <v>17.400793</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2867.160000</v>
+        <v>2867.16</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3625.270000</v>
+        <v>-3625.27</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>62656.158365</v>
+        <v>62656.158365000003</v>
       </c>
       <c r="CD26" s="1">
-        <v>17.404488</v>
+        <v>17.404488000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>4274.190000</v>
+        <v>4274.1899999999996</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5880.360000</v>
+        <v>-5880.36</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>